--- a/Supplementary_Datafiles.xlsx
+++ b/Supplementary_Datafiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/gleesonm1_cardiff_ac_uk/Documents/PhD Galapagos/Ridge paper G3/Draft postthesis/Draft3/Draft_Final/Submitted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/gleesonm1_cardiff_ac_uk/Documents/PhD Galapagos/Ridge paper G3/Draft postthesis/Draft3/Draft_Final/Submitted/PostReview/Resubmitted/Round2/Final/Round 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{C6001514-E874-434F-A04C-15644E60DEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{604996B2-5D73-43BE-8A12-DACC671DA922}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{C6001514-E874-434F-A04C-15644E60DEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2760AA0-2AC6-40EE-AFBC-968E2E6CFCB6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ECE0E08-F7B2-4AED-90AC-071BFB65DCB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9ECE0E08-F7B2-4AED-90AC-071BFB65DCB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GSC data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="189">
   <si>
     <t>Sample</t>
   </si>
@@ -477,9 +477,6 @@
   </si>
   <si>
     <t>VG2</t>
-  </si>
-  <si>
-    <t>Secondary standards for SO2 and Cl probe analyses. Data collected during a single run.</t>
   </si>
   <si>
     <t>BCR-2g</t>
@@ -802,6 +799,90 @@
       </rPr>
       <t xml:space="preserve"> (ppm)</t>
     </r>
+  </si>
+  <si>
+    <t>ISGN</t>
+  </si>
+  <si>
+    <t>URI002320</t>
+  </si>
+  <si>
+    <t>URI002322</t>
+  </si>
+  <si>
+    <t>URI002324</t>
+  </si>
+  <si>
+    <t>URI002325</t>
+  </si>
+  <si>
+    <t>URI002328</t>
+  </si>
+  <si>
+    <t>URI002346</t>
+  </si>
+  <si>
+    <t>URI002345</t>
+  </si>
+  <si>
+    <t>URI002344</t>
+  </si>
+  <si>
+    <t>URI002343</t>
+  </si>
+  <si>
+    <t>URI002330</t>
+  </si>
+  <si>
+    <t>URI002331</t>
+  </si>
+  <si>
+    <t>URI002342</t>
+  </si>
+  <si>
+    <t>URI002333</t>
+  </si>
+  <si>
+    <t>URI002335</t>
+  </si>
+  <si>
+    <t>URI002336</t>
+  </si>
+  <si>
+    <t>URI002337</t>
+  </si>
+  <si>
+    <t>URI002338</t>
+  </si>
+  <si>
+    <t>URI002339</t>
+  </si>
+  <si>
+    <t>URI901575</t>
+  </si>
+  <si>
+    <t>URI901564</t>
+  </si>
+  <si>
+    <t>URI901563</t>
+  </si>
+  <si>
+    <t>URI901558</t>
+  </si>
+  <si>
+    <t>URI901559</t>
+  </si>
+  <si>
+    <t>URI901561</t>
+  </si>
+  <si>
+    <t>URI901566</t>
+  </si>
+  <si>
+    <t>URI901562</t>
+  </si>
+  <si>
+    <t>Secondary standards for SO2  probe analyses. Data collected during a single run.</t>
   </si>
 </sst>
 </file>
@@ -884,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -897,6 +978,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1217,4389 +1303,4475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B41EA5-5941-40A3-B20A-88FCEDFE0D17}">
-  <dimension ref="A1:AX30"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="E1" s="12" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="F1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="12" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12" t="s">
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-    </row>
-    <row r="2" spans="1:50" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+    </row>
+    <row r="2" spans="1:51" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>3.2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>83.04</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>50.010525000000001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>1.2246125000000001</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>15.1180375</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>8.9603625000000005</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>0.178975</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>8.5046874999999993</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>12.03495</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>2.2500499999999999</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>4.1162499999999998E-2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>8.8512499999999994E-2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>0.1547959751060993</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>132.79604380623704</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>1130.1249999999998</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <v>15.202056525248103</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <v>0.172228656201975</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <v>8.1347491199664404E-2</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>2.4151533299719963E-2</v>
       </c>
-      <c r="V3" s="6">
+      <c r="W3" s="6">
         <v>0.14141975926584838</v>
       </c>
-      <c r="W3" s="6">
+      <c r="X3" s="6">
         <v>9.1878381551348698E-2</v>
       </c>
-      <c r="X3" s="11">
+      <c r="Y3" s="11">
         <v>38.82</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Z3" s="11">
         <v>324.07</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="AA3" s="11">
         <v>449.17</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AB3" s="11">
         <v>45.84</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AC3" s="11">
         <v>113.08</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AD3" s="11">
         <v>91.37</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AE3" s="11">
         <v>0.27</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AF3" s="11">
         <v>95.99</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AG3" s="11">
         <v>25.32</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AH3" s="11">
         <v>58.69</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AI3" s="11">
         <v>0.75700000000000001</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AJ3" s="11">
         <v>3.24</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AK3" s="11">
         <v>1.91</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AL3" s="11">
         <v>7.14</v>
       </c>
-      <c r="AL3" s="11">
+      <c r="AM3" s="11">
         <v>1.2869999999999999</v>
       </c>
-      <c r="AM3" s="11">
+      <c r="AN3" s="11">
         <v>7.39</v>
       </c>
-      <c r="AN3" s="11">
+      <c r="AO3" s="11">
         <v>2.72</v>
       </c>
-      <c r="AO3" s="11">
+      <c r="AP3" s="11">
         <v>1.0409999999999999</v>
       </c>
-      <c r="AP3" s="11">
+      <c r="AQ3" s="11">
         <v>3.83</v>
       </c>
-      <c r="AQ3" s="11">
+      <c r="AR3" s="11">
         <v>0.68500000000000005</v>
       </c>
-      <c r="AR3" s="11">
+      <c r="AS3" s="11">
         <v>4.8</v>
       </c>
-      <c r="AS3" s="11">
+      <c r="AT3" s="11">
         <v>1.0569999999999999</v>
       </c>
-      <c r="AT3" s="11">
+      <c r="AU3" s="11">
         <v>3.2</v>
       </c>
-      <c r="AU3" s="11">
+      <c r="AV3" s="11">
         <v>0.41399999999999998</v>
       </c>
-      <c r="AV3" s="11">
+      <c r="AW3" s="11">
         <v>3.21</v>
       </c>
-      <c r="AW3" s="11">
+      <c r="AX3" s="11">
         <v>0.46400000000000002</v>
       </c>
-      <c r="AX3" s="11">
+      <c r="AY3" s="11">
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>1.74</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>85.12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>49.332050000000002</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>1.5835999999999999</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>15.708137499999999</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>8.5660624999999992</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>0.16716249999999999</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>8.2236124999999998</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>11.7076125</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>2.8275125000000001</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>7.5024999999999994E-2</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>0.19867499999999999</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>0.24353795512763954</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>219.13435037223803</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>1012.0625000000001</v>
       </c>
-      <c r="R4" s="10">
+      <c r="S4" s="10">
         <v>23.081556083940221</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <v>0.25527432277884499</v>
       </c>
-      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="11">
+      <c r="V4" s="3"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="11">
         <v>40.450000000000003</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Z4" s="11">
         <v>281.93</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="AA4" s="11">
         <v>395.33</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AB4" s="11">
         <v>41.47</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AC4" s="11">
         <v>102.14</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AD4" s="11">
         <v>92.28</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AE4" s="11">
         <v>0.61599999999999999</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AF4" s="11">
         <v>141.655</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AG4" s="11">
         <v>28.39</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AH4" s="11">
         <v>112.4</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AI4" s="11">
         <v>1.43</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AJ4" s="11">
         <v>6.16</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AK4" s="11">
         <v>3.8650000000000002</v>
       </c>
-      <c r="AK4" s="11">
+      <c r="AL4" s="11">
         <v>13.744999999999999</v>
       </c>
-      <c r="AL4" s="11">
+      <c r="AM4" s="11">
         <v>2.3199999999999998</v>
       </c>
-      <c r="AM4" s="11">
+      <c r="AN4" s="11">
         <v>11.805</v>
       </c>
-      <c r="AN4" s="11">
+      <c r="AO4" s="11">
         <v>3.5649999999999999</v>
       </c>
-      <c r="AO4" s="11">
+      <c r="AP4" s="11">
         <v>1.2270000000000001</v>
       </c>
-      <c r="AP4" s="11">
+      <c r="AQ4" s="11">
         <v>4.6349999999999998</v>
       </c>
-      <c r="AQ4" s="11">
+      <c r="AR4" s="11">
         <v>0.77849999999999997</v>
       </c>
-      <c r="AR4" s="11">
+      <c r="AS4" s="11">
         <v>4.9649999999999999</v>
       </c>
-      <c r="AS4" s="11">
+      <c r="AT4" s="11">
         <v>1.1274999999999999</v>
       </c>
-      <c r="AT4" s="11">
+      <c r="AU4" s="11">
         <v>3.1850000000000001</v>
       </c>
-      <c r="AU4" s="11">
+      <c r="AV4" s="11">
         <v>0.46100000000000002</v>
       </c>
-      <c r="AV4" s="11">
+      <c r="AW4" s="11">
         <v>3.33</v>
       </c>
-      <c r="AW4" s="11">
+      <c r="AX4" s="11">
         <v>0.46150000000000002</v>
       </c>
-      <c r="AX4" s="11">
+      <c r="AY4" s="11">
         <v>2.7050000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.71</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>85.5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>48.528700000000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>3.9315000000000002</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>11.212237500000001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>18.277875000000002</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>0.29801250000000001</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>4.4119875000000004</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>8.7580249999999999</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>2.5134500000000002</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>0.20018749999999999</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>0.417875</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>0.72939113367420927</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>428.01500202281358</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>2605.5</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <v>950.95753088398794</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="3"/>
+      <c r="T5" s="4"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="11">
+      <c r="V5" s="3"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="11">
         <v>45.88</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Z5" s="11">
         <v>670.22</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="AA5" s="11">
         <v>11.88</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AB5" s="11">
         <v>49.9</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AC5" s="11">
         <v>29.43</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AD5" s="11">
         <v>54.06</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AE5" s="11">
         <v>4.6399999999999997</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AF5" s="11">
         <v>72.069999999999993</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AG5" s="11">
         <v>102.4</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AH5" s="11">
         <v>282.93</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AI5" s="11">
         <v>9.5399999999999991</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AJ5" s="11">
         <v>31.82</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AK5" s="11">
         <v>10.050000000000001</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AL5" s="11">
         <v>31.35</v>
       </c>
-      <c r="AL5" s="11">
+      <c r="AM5" s="11">
         <v>5.41</v>
       </c>
-      <c r="AM5" s="11">
+      <c r="AN5" s="11">
         <v>29.31</v>
       </c>
-      <c r="AN5" s="11">
+      <c r="AO5" s="11">
         <v>10.09</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AP5" s="11">
         <v>3.01</v>
       </c>
-      <c r="AP5" s="11">
+      <c r="AQ5" s="11">
         <v>14.49</v>
       </c>
-      <c r="AQ5" s="11">
+      <c r="AR5" s="11">
         <v>2.57</v>
       </c>
-      <c r="AR5" s="11">
+      <c r="AS5" s="11">
         <v>18.05</v>
       </c>
-      <c r="AS5" s="11">
+      <c r="AT5" s="11">
         <v>3.9</v>
       </c>
-      <c r="AT5" s="11">
+      <c r="AU5" s="11">
         <v>11.31</v>
       </c>
-      <c r="AU5" s="11">
+      <c r="AV5" s="11">
         <v>1.66</v>
       </c>
-      <c r="AV5" s="11">
+      <c r="AW5" s="11">
         <v>11</v>
       </c>
-      <c r="AW5" s="11">
+      <c r="AX5" s="11">
         <v>1.76</v>
       </c>
-      <c r="AX5" s="11">
+      <c r="AY5" s="11">
         <v>8.36</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.82</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>86.13</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>47.924257140000002</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>2.6257285709999998</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>15.64611429</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>9.6738857140000007</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>0.17171428599999999</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>6.829685714</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>9.0100714289999999</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>3.6082000000000001</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>1.1250714289999999</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>0.519557143</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>0.87997159159630411</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>579.14683649905862</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>1193.2</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="10">
         <v>501.30086070630961</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <v>0.70128387567857497</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="6">
         <v>0.2419477300727261</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <v>2.2159758888424544E-2</v>
       </c>
-      <c r="V6" s="6">
+      <c r="W6" s="6">
         <v>0.34657984371951517</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="6">
         <v>7.861256744956574E-2</v>
       </c>
-      <c r="X6" s="11">
+      <c r="Y6" s="11">
         <v>24.54666667</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Z6" s="11">
         <v>270.26666669999997</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="AA6" s="11">
         <v>189.05666669999999</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AB6" s="11">
         <v>37.073333329999997</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AC6" s="11">
         <v>89.19</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AD6" s="11">
         <v>43.856666670000003</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AE6" s="11">
         <v>21.776666670000001</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AF6" s="11">
         <v>426.50666669999998</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AG6" s="11">
         <v>28.563333329999999</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AH6" s="11">
         <v>182.27666669999999</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AI6" s="11">
         <v>30.893333330000001</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AJ6" s="11">
         <v>261.6766667</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AK6" s="11">
         <v>23.11</v>
       </c>
-      <c r="AK6" s="11">
+      <c r="AL6" s="11">
         <v>52.006666670000001</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AM6" s="11">
         <v>6.39</v>
       </c>
-      <c r="AM6" s="11">
+      <c r="AN6" s="11">
         <v>27.293333329999999</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AO6" s="11">
         <v>6.1766666670000001</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AP6" s="11">
         <v>2.036666667</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AQ6" s="11">
         <v>6.3733333329999997</v>
       </c>
-      <c r="AQ6" s="11">
+      <c r="AR6" s="11">
         <v>0.97533333300000002</v>
       </c>
-      <c r="AR6" s="11">
+      <c r="AS6" s="11">
         <v>6.2766666669999998</v>
       </c>
-      <c r="AS6" s="11">
+      <c r="AT6" s="11">
         <v>1.1846666669999999</v>
       </c>
-      <c r="AT6" s="11">
+      <c r="AU6" s="11">
         <v>3.266666667</v>
       </c>
-      <c r="AU6" s="11">
+      <c r="AV6" s="11">
         <v>0.47266666699999998</v>
       </c>
-      <c r="AV6" s="11">
+      <c r="AW6" s="11">
         <v>3.003333333</v>
       </c>
-      <c r="AW6" s="11">
+      <c r="AX6" s="11">
         <v>0.429666667</v>
       </c>
-      <c r="AX6" s="11">
+      <c r="AY6" s="11">
         <v>4.5433333329999996</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.85</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>86.55</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>49.87</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>2.1180750000000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>12.96345</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>12.959</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>0.24002499999999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>6.4723125000000001</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>10.3420875</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>2.4401000000000002</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>0.11075</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>0.1837125</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>0.29646189008047752</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>231.1142618952403</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>1618.1875</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>700.88835995258933</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <v>0.145204210761713</v>
       </c>
-      <c r="T7" s="6">
+      <c r="U7" s="6">
         <v>5.2644302877546956E-2</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <v>2.5666766341239496E-2</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="6">
         <v>8.1513332652383141E-2</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="6">
         <v>9.6163759700996776E-3</v>
       </c>
-      <c r="X7" s="11">
+      <c r="Y7" s="11">
         <v>40.5</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Z7" s="11">
         <v>456.6</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="AA7" s="11">
         <v>136.01</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AB7" s="11">
         <v>47.47</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AC7" s="11">
         <v>58.04</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AD7" s="11">
         <v>77.739999999999995</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AE7" s="11">
         <v>2.42</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AF7" s="11">
         <v>72.040000000000006</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AG7" s="11">
         <v>43.77</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AH7" s="11">
         <v>110.17</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AI7" s="11">
         <v>4.87</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AJ7" s="11">
         <v>20.57</v>
       </c>
-      <c r="AJ7" s="11">
+      <c r="AK7" s="11">
         <v>5.08</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AL7" s="11">
         <v>15.41</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AM7" s="11">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AM7" s="11">
+      <c r="AN7" s="11">
         <v>13.61</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AO7" s="11">
         <v>4.84</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AP7" s="11">
         <v>1.56</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AQ7" s="11">
         <v>5.89</v>
       </c>
-      <c r="AQ7" s="11">
+      <c r="AR7" s="11">
         <v>1.1419999999999999</v>
       </c>
-      <c r="AR7" s="11">
+      <c r="AS7" s="11">
         <v>8.56</v>
       </c>
-      <c r="AS7" s="11">
+      <c r="AT7" s="11">
         <v>1.78</v>
       </c>
-      <c r="AT7" s="11">
+      <c r="AU7" s="11">
         <v>5.16</v>
       </c>
-      <c r="AU7" s="11">
+      <c r="AV7" s="11">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AV7" s="11">
+      <c r="AW7" s="11">
         <v>5.29</v>
       </c>
-      <c r="AW7" s="11">
+      <c r="AX7" s="11">
         <v>0.748</v>
       </c>
-      <c r="AX7" s="11">
+      <c r="AY7" s="11">
         <v>3.52</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.86</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>87.09</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50.3483375</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>0.99872499999999997</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14.961287499999999</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8.9141499999999994</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>0.17251250000000001</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8.4566625000000002</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12.508475000000001</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2.1131875</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6.5387500000000001E-2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>0.12183962405740612</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>110.11490915186721</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>1069.1875</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <v>166.75882063342581</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <v>0.12331705966349001</v>
       </c>
-      <c r="T8" s="6">
+      <c r="U8" s="6">
         <v>6.3239809868405786E-2</v>
       </c>
-      <c r="U8" s="6">
+      <c r="V8" s="6">
         <v>3.0961799053280028E-2</v>
       </c>
-      <c r="V8" s="6">
+      <c r="W8" s="6">
         <v>7.6074804463773418E-2</v>
       </c>
-      <c r="W8" s="6">
+      <c r="X8" s="6">
         <v>3.6462226861428262E-2</v>
       </c>
-      <c r="X8" s="11">
+      <c r="Y8" s="11">
         <v>39.604999999999997</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Z8" s="11">
         <v>264.27</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="AA8" s="11">
         <v>428.58</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AB8" s="11">
         <v>44.055</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AC8" s="11">
         <v>103.575</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AD8" s="11">
         <v>103.01</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AE8" s="11">
         <v>0.21049999999999999</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AF8" s="11">
         <v>66.08</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AG8" s="11">
         <v>20.695</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AH8" s="11">
         <v>41.34</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AI8" s="11">
         <v>0.67149999999999999</v>
       </c>
-      <c r="AI8" s="11">
+      <c r="AJ8" s="11">
         <v>2.59</v>
       </c>
-      <c r="AJ8" s="11">
+      <c r="AK8" s="11">
         <v>1.2350000000000001</v>
       </c>
-      <c r="AK8" s="11">
+      <c r="AL8" s="11">
         <v>4.72</v>
       </c>
-      <c r="AL8" s="11">
+      <c r="AM8" s="11">
         <v>0.86550000000000005</v>
       </c>
-      <c r="AM8" s="11">
+      <c r="AN8" s="11">
         <v>5.4</v>
       </c>
-      <c r="AN8" s="11">
+      <c r="AO8" s="11">
         <v>1.88</v>
       </c>
-      <c r="AO8" s="11">
+      <c r="AP8" s="11">
         <v>0.77949999999999997</v>
       </c>
-      <c r="AP8" s="11">
+      <c r="AQ8" s="11">
         <v>2.92</v>
       </c>
-      <c r="AQ8" s="11">
+      <c r="AR8" s="11">
         <v>0.54049999999999998</v>
       </c>
-      <c r="AR8" s="11">
+      <c r="AS8" s="11">
         <v>3.64</v>
       </c>
-      <c r="AS8" s="11">
+      <c r="AT8" s="11">
         <v>0.87150000000000005</v>
       </c>
-      <c r="AT8" s="11">
+      <c r="AU8" s="11">
         <v>2.54</v>
       </c>
-      <c r="AU8" s="11">
+      <c r="AV8" s="11">
         <v>0.35599999999999998</v>
       </c>
-      <c r="AV8" s="11">
+      <c r="AW8" s="11">
         <v>2.3849999999999998</v>
       </c>
-      <c r="AW8" s="11">
+      <c r="AX8" s="11">
         <v>0.3805</v>
       </c>
-      <c r="AX8" s="11">
+      <c r="AY8" s="11">
         <v>1.33</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.74</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>87.48</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49.609225000000002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2.294575</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12.3814875</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14.359237500000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>0.26300000000000001</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5.6801624999999998</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9.9593000000000007</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2.6951125</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>0.14044999999999999</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>0.19445000000000001</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>0.32557233112829448</v>
       </c>
-      <c r="P9" s="10">
+      <c r="Q9" s="10">
         <v>244.39074261456324</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>1824.125</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>611.96345645829183</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>0.13709841281000501</v>
       </c>
-      <c r="T9" s="6">
+      <c r="U9" s="6">
         <v>8.6064681410850483E-2</v>
       </c>
-      <c r="U9" s="6">
+      <c r="V9" s="6">
         <v>8.2016582881507434E-3</v>
       </c>
-      <c r="V9" s="6">
+      <c r="W9" s="6">
         <v>0.13218320005995801</v>
       </c>
-      <c r="W9" s="6">
+      <c r="X9" s="6">
         <v>1.5928570049769008E-2</v>
       </c>
-      <c r="X9" s="11">
+      <c r="Y9" s="11">
         <v>39.65</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Z9" s="11">
         <v>464.6</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="AA9" s="11">
         <v>23.5</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AB9" s="11">
         <v>46.3</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AC9" s="11">
         <v>29.57</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AD9" s="11">
         <v>96.06</v>
       </c>
-      <c r="AD9" s="11">
+      <c r="AE9" s="11">
         <v>2.72</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AF9" s="11">
         <v>86.76</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AG9" s="11">
         <v>43.81</v>
       </c>
-      <c r="AG9" s="11">
+      <c r="AH9" s="11">
         <v>114.9</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AI9" s="11">
         <v>5.54</v>
       </c>
-      <c r="AI9" s="11">
+      <c r="AJ9" s="11">
         <v>26.48</v>
       </c>
-      <c r="AJ9" s="11">
+      <c r="AK9" s="11">
         <v>5.66</v>
       </c>
-      <c r="AK9" s="11">
+      <c r="AL9" s="11">
         <v>16.8</v>
       </c>
-      <c r="AL9" s="11">
+      <c r="AM9" s="11">
         <v>2.71</v>
       </c>
-      <c r="AM9" s="11">
+      <c r="AN9" s="11">
         <v>14.09</v>
       </c>
-      <c r="AN9" s="11">
+      <c r="AO9" s="11">
         <v>4.96</v>
       </c>
-      <c r="AO9" s="11">
+      <c r="AP9" s="11">
         <v>1.78</v>
       </c>
-      <c r="AP9" s="11">
+      <c r="AQ9" s="11">
         <v>6.89</v>
       </c>
-      <c r="AQ9" s="11">
+      <c r="AR9" s="11">
         <v>1.2090000000000001</v>
       </c>
-      <c r="AR9" s="11">
+      <c r="AS9" s="11">
         <v>7.91</v>
       </c>
-      <c r="AS9" s="11">
+      <c r="AT9" s="11">
         <v>1.74</v>
       </c>
-      <c r="AT9" s="11">
+      <c r="AU9" s="11">
         <v>5.04</v>
       </c>
-      <c r="AU9" s="11">
+      <c r="AV9" s="11">
         <v>0.74399999999999999</v>
       </c>
-      <c r="AV9" s="11">
+      <c r="AW9" s="11">
         <v>5.36</v>
       </c>
-      <c r="AW9" s="11">
+      <c r="AX9" s="11">
         <v>0.76900000000000002</v>
       </c>
-      <c r="AX9" s="11">
+      <c r="AY9" s="11">
         <v>3.41</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.73</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>88.24</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>50.021537500000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1.5740749999999999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13.7155375</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11.5979625</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>0.22902500000000001</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7.2507000000000001</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11.298712500000001</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2.286</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9.7049999999999997E-2</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>0.13519999999999999</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>0.22569361907229685</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <v>177.12735956139863</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>1371</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>382.89906799631495</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <v>0.15439020952337101</v>
       </c>
-      <c r="T10" s="6">
+      <c r="U10" s="6">
         <v>8.9051855850212178E-2</v>
       </c>
-      <c r="U10" s="6">
+      <c r="V10" s="6">
         <v>1.5376426338535825E-2</v>
       </c>
-      <c r="V10" s="6">
+      <c r="W10" s="6">
         <v>0.13975211089826503</v>
       </c>
-      <c r="W10" s="6">
+      <c r="X10" s="6">
         <v>3.414272134852029E-2</v>
       </c>
-      <c r="X10" s="11">
+      <c r="Y10" s="11">
         <v>40.49</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Z10" s="11">
         <v>366.24333330000002</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="AA10" s="11">
         <v>218.65666669999999</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AB10" s="11">
         <v>45.58</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AC10" s="11">
         <v>65.849999999999994</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AD10" s="11">
         <v>93.28</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AE10" s="11">
         <v>2.3033333329999999</v>
       </c>
-      <c r="AE10" s="11">
+      <c r="AF10" s="11">
         <v>70.28</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AG10" s="11">
         <v>34.096666669999998</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AH10" s="11">
         <v>79.246666669999996</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AI10" s="11">
         <v>4.18</v>
       </c>
-      <c r="AI10" s="11">
+      <c r="AJ10" s="11">
         <v>19.36</v>
       </c>
-      <c r="AJ10" s="11">
+      <c r="AK10" s="11">
         <v>3.903333333</v>
       </c>
-      <c r="AK10" s="11">
+      <c r="AL10" s="11">
         <v>11.16333333</v>
       </c>
-      <c r="AL10" s="11">
+      <c r="AM10" s="11">
         <v>1.83</v>
       </c>
-      <c r="AM10" s="11">
+      <c r="AN10" s="11">
         <v>9.82</v>
       </c>
-      <c r="AN10" s="11">
+      <c r="AO10" s="11">
         <v>3.536666667</v>
       </c>
-      <c r="AO10" s="11">
+      <c r="AP10" s="11">
         <v>1.2563333329999999</v>
       </c>
-      <c r="AP10" s="11">
+      <c r="AQ10" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AQ10" s="11">
+      <c r="AR10" s="11">
         <v>0.85599999999999998</v>
       </c>
-      <c r="AR10" s="11">
+      <c r="AS10" s="11">
         <v>5.9866666669999997</v>
       </c>
-      <c r="AS10" s="11">
+      <c r="AT10" s="11">
         <v>1.34</v>
       </c>
-      <c r="AT10" s="11">
+      <c r="AU10" s="11">
         <v>3.9666666670000001</v>
       </c>
-      <c r="AU10" s="11">
+      <c r="AV10" s="11">
         <v>0.58066666700000003</v>
       </c>
-      <c r="AV10" s="11">
+      <c r="AW10" s="11">
         <v>3.9933333329999998</v>
       </c>
-      <c r="AW10" s="11">
+      <c r="AX10" s="11">
         <v>0.60899999999999999</v>
       </c>
-      <c r="AX10" s="11">
+      <c r="AY10" s="11">
         <v>2.44</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>0.78</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>88.9</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>49.710149999999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>1.6762125000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>13.636100000000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>11.4322625</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>0.21858749999999999</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>6.97865</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>11.4053</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>2.5688624999999998</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>0.12620000000000001</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>0.15716250000000001</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>0.2972799210606718</v>
       </c>
-      <c r="P11" s="10">
+      <c r="Q11" s="10">
         <v>239.50237417915849</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>1425.1875</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <v>657.41016849708853</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <v>0.170674698817151</v>
       </c>
-      <c r="T11" s="6">
+      <c r="U11" s="6">
         <v>8.6386045891975419E-2</v>
       </c>
-      <c r="U11" s="6">
+      <c r="V11" s="6">
         <v>3.9032327890953337E-2</v>
       </c>
-      <c r="V11" s="6">
+      <c r="W11" s="6">
         <v>0.12075448630910479</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X11" s="6">
         <v>6.1197937217219181E-2</v>
       </c>
-      <c r="X11" s="11">
+      <c r="Y11" s="11">
         <v>43.19</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Z11" s="11">
         <v>367.33</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="AA11" s="11">
         <v>168.47</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AB11" s="11">
         <v>46.27</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AC11" s="11">
         <v>54.43</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AD11" s="11">
         <v>116.58</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AE11" s="11">
         <v>2.6</v>
       </c>
-      <c r="AE11" s="11">
+      <c r="AF11" s="11">
         <v>98.47</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AG11" s="11">
         <v>33.450000000000003</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AH11" s="11">
         <v>87.5</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AI11" s="11">
         <v>4.91</v>
       </c>
-      <c r="AI11" s="11">
+      <c r="AJ11" s="11">
         <v>25.61</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AK11" s="11">
         <v>4.75</v>
       </c>
-      <c r="AK11" s="11">
+      <c r="AL11" s="11">
         <v>13.44</v>
       </c>
-      <c r="AL11" s="11">
+      <c r="AM11" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AM11" s="11">
+      <c r="AN11" s="11">
         <v>11.22</v>
       </c>
-      <c r="AN11" s="11">
+      <c r="AO11" s="11">
         <v>4.12</v>
       </c>
-      <c r="AO11" s="11">
+      <c r="AP11" s="11">
         <v>1.4650000000000001</v>
       </c>
-      <c r="AP11" s="11">
+      <c r="AQ11" s="11">
         <v>5.14</v>
       </c>
-      <c r="AQ11" s="11">
+      <c r="AR11" s="11">
         <v>0.91100000000000003</v>
       </c>
-      <c r="AR11" s="11">
+      <c r="AS11" s="11">
         <v>6.06</v>
       </c>
-      <c r="AS11" s="11">
+      <c r="AT11" s="11">
         <v>1.385</v>
       </c>
-      <c r="AT11" s="11">
+      <c r="AU11" s="11">
         <v>3.99</v>
       </c>
-      <c r="AU11" s="11">
+      <c r="AV11" s="11">
         <v>0.56499999999999995</v>
       </c>
-      <c r="AV11" s="11">
+      <c r="AW11" s="11">
         <v>4.0199999999999996</v>
       </c>
-      <c r="AW11" s="11">
+      <c r="AX11" s="11">
         <v>0.6</v>
       </c>
-      <c r="AX11" s="11">
+      <c r="AY11" s="11">
         <v>2.54</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>0.78</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>89.23</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>49.383450000000003</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1.6108625000000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14.113149999999999</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10.75845</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>0.20080000000000001</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7.4027500000000002</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11.874025</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2.5743624999999999</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>0.13539999999999999</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>0.13425000000000001</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>0.26057580427052374</v>
       </c>
-      <c r="P12" s="10">
+      <c r="Q12" s="10">
         <v>217.26148222615996</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>1260.125</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <v>341.33715924072055</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <v>0.219421121019055</v>
       </c>
-      <c r="T12" s="6">
+      <c r="U12" s="6">
         <v>0.1006705718475942</v>
       </c>
-      <c r="U12" s="6">
+      <c r="V12" s="6">
         <v>2.3545379359304435E-2</v>
       </c>
-      <c r="V12" s="6">
+      <c r="W12" s="6">
         <v>0.1390377761124976</v>
       </c>
-      <c r="W12" s="6">
+      <c r="X12" s="6">
         <v>4.4073904843977857E-2</v>
       </c>
-      <c r="X12" s="11">
+      <c r="Y12" s="11">
         <v>44.24</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Z12" s="11">
         <v>353.67</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="AA12" s="11">
         <v>298.91000000000003</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AB12" s="11">
         <v>47.44</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AC12" s="11">
         <v>72.47</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AD12" s="11">
         <v>137.22</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AE12" s="11">
         <v>2.73</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AF12" s="11">
         <v>123.24</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AG12" s="11">
         <v>30.63</v>
       </c>
-      <c r="AG12" s="11">
+      <c r="AH12" s="11">
         <v>83.14</v>
       </c>
-      <c r="AH12" s="11">
+      <c r="AI12" s="11">
         <v>5.66</v>
       </c>
-      <c r="AI12" s="11">
+      <c r="AJ12" s="11">
         <v>30.14</v>
       </c>
-      <c r="AJ12" s="11">
+      <c r="AK12" s="11">
         <v>5.21</v>
       </c>
-      <c r="AK12" s="11">
+      <c r="AL12" s="11">
         <v>14.15</v>
       </c>
-      <c r="AL12" s="11">
+      <c r="AM12" s="11">
         <v>2.0699999999999998</v>
       </c>
-      <c r="AM12" s="11">
+      <c r="AN12" s="11">
         <v>10.87</v>
       </c>
-      <c r="AN12" s="11">
+      <c r="AO12" s="11">
         <v>3.62</v>
       </c>
-      <c r="AO12" s="11">
+      <c r="AP12" s="11">
         <v>1.33</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AQ12" s="11">
         <v>4.92</v>
       </c>
-      <c r="AQ12" s="11">
+      <c r="AR12" s="11">
         <v>0.85899999999999999</v>
       </c>
-      <c r="AR12" s="11">
+      <c r="AS12" s="11">
         <v>5.93</v>
       </c>
-      <c r="AS12" s="11">
+      <c r="AT12" s="11">
         <v>1.23</v>
       </c>
-      <c r="AT12" s="11">
+      <c r="AU12" s="11">
         <v>3.6</v>
       </c>
-      <c r="AU12" s="11">
+      <c r="AV12" s="11">
         <v>0.55800000000000005</v>
       </c>
-      <c r="AV12" s="11">
+      <c r="AW12" s="11">
         <v>3.7</v>
       </c>
-      <c r="AW12" s="11">
+      <c r="AX12" s="11">
         <v>0.53500000000000003</v>
       </c>
-      <c r="AX12" s="11">
+      <c r="AY12" s="11">
         <v>2.46</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>0.84</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>89.59</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>49.405425000000001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>2.2860749999999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>14.1516</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>10.569387499999999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>0.17422499999999999</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>6.0650874999999997</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>10.418275</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>3.0706625000000001</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>0.66930000000000001</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>0.34567500000000001</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>0.65370036935349707</v>
       </c>
-      <c r="P13" s="10">
+      <c r="Q13" s="10">
         <v>413.56918357034914</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <v>1345.6874999999998</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="10">
         <v>739.50644751646041</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <v>0.419140886512892</v>
       </c>
-      <c r="T13" s="6">
+      <c r="U13" s="6">
         <v>0.14502233295495454</v>
       </c>
-      <c r="U13" s="6">
+      <c r="V13" s="6">
         <v>4.8641626328850473E-3</v>
       </c>
-      <c r="V13" s="6">
+      <c r="W13" s="6">
         <v>0.22712351868618233</v>
       </c>
-      <c r="W13" s="6">
+      <c r="X13" s="6">
         <v>4.1239930129911825E-2</v>
       </c>
-      <c r="X13" s="11">
+      <c r="Y13" s="11">
         <v>36.493333329999999</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Z13" s="11">
         <v>333.04</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="AA13" s="11">
         <v>93.643333330000004</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AB13" s="11">
         <v>38.393333329999997</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AC13" s="11">
         <v>38.20333333</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AD13" s="11">
         <v>91.186666669999994</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="AE13" s="11">
         <v>15.01333333</v>
       </c>
-      <c r="AE13" s="11">
+      <c r="AF13" s="11">
         <v>241.89</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AG13" s="11">
         <v>32.18</v>
       </c>
-      <c r="AG13" s="11">
+      <c r="AH13" s="11">
         <v>158.18</v>
       </c>
-      <c r="AH13" s="11">
+      <c r="AI13" s="11">
         <v>24.28</v>
       </c>
-      <c r="AI13" s="11">
+      <c r="AJ13" s="11">
         <v>157.1</v>
       </c>
-      <c r="AJ13" s="11">
+      <c r="AK13" s="11">
         <v>16.82</v>
       </c>
-      <c r="AK13" s="11">
+      <c r="AL13" s="11">
         <v>37.380000000000003</v>
       </c>
-      <c r="AL13" s="11">
+      <c r="AM13" s="11">
         <v>4.806666667</v>
       </c>
-      <c r="AM13" s="11">
+      <c r="AN13" s="11">
         <v>21.643333330000001</v>
       </c>
-      <c r="AN13" s="11">
+      <c r="AO13" s="11">
         <v>5.6466666669999999</v>
       </c>
-      <c r="AO13" s="11">
+      <c r="AP13" s="11">
         <v>1.9766666669999999</v>
       </c>
-      <c r="AP13" s="11">
+      <c r="AQ13" s="11">
         <v>5.99</v>
       </c>
-      <c r="AQ13" s="11">
+      <c r="AR13" s="11">
         <v>0.98899999999999999</v>
       </c>
-      <c r="AR13" s="11">
+      <c r="AS13" s="11">
         <v>6.5366666670000004</v>
       </c>
-      <c r="AS13" s="11">
+      <c r="AT13" s="11">
         <v>1.3260000000000001</v>
       </c>
-      <c r="AT13" s="11">
+      <c r="AU13" s="11">
         <v>3.76</v>
       </c>
-      <c r="AU13" s="11">
+      <c r="AV13" s="11">
         <v>0.53666666699999999</v>
       </c>
-      <c r="AV13" s="11">
+      <c r="AW13" s="11">
         <v>3.6833333330000002</v>
       </c>
-      <c r="AW13" s="11">
+      <c r="AX13" s="11">
         <v>0.51966666699999997</v>
       </c>
-      <c r="AX13" s="11">
+      <c r="AY13" s="11">
         <v>3.963333333</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>0.84</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>89.59</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>49.483699999999999</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2.2719499999999999</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14.27327</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10.656000000000001</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>0.20086999999999999</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6.1072899999999999</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10.47884</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3.07796</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>0.68984999999999996</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>0.33977000000000002</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>0.6463805065611633</v>
       </c>
-      <c r="P14" s="10">
+      <c r="Q14" s="10">
         <v>407.0598570341603</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <v>1419.3125</v>
       </c>
-      <c r="R14" s="10">
+      <c r="S14" s="10">
         <v>753.66533563840505</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>0.411591849503955</v>
       </c>
-      <c r="T14" s="6">
+      <c r="U14" s="6">
         <v>0.14072000000000001</v>
       </c>
-      <c r="U14" s="6">
+      <c r="V14" s="6">
         <v>2.367E-2</v>
       </c>
-      <c r="V14" s="6">
+      <c r="W14" s="6">
         <v>0.20329554883994719</v>
       </c>
-      <c r="W14" s="6">
+      <c r="X14" s="6">
         <v>1.9577296262381777E-2</v>
       </c>
-      <c r="X14" s="11">
+      <c r="Y14" s="11">
         <v>37.414999999999999</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Z14" s="11">
         <v>342.40499999999997</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="AA14" s="11">
         <v>96.6</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AB14" s="11">
         <v>38.380000000000003</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AC14" s="11">
         <v>39.115000000000002</v>
       </c>
-      <c r="AC14" s="11">
+      <c r="AD14" s="11">
         <v>91.885000000000005</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AE14" s="11">
         <v>14.76</v>
       </c>
-      <c r="AE14" s="11">
+      <c r="AF14" s="11">
         <v>231.37</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AG14" s="11">
         <v>32.64</v>
       </c>
-      <c r="AG14" s="11">
+      <c r="AH14" s="11">
         <v>156.29499999999999</v>
       </c>
-      <c r="AH14" s="11">
+      <c r="AI14" s="11">
         <v>24.11</v>
       </c>
-      <c r="AI14" s="11">
+      <c r="AJ14" s="11">
         <v>155.57499999999999</v>
       </c>
-      <c r="AJ14" s="11">
+      <c r="AK14" s="11">
         <v>16.32</v>
       </c>
-      <c r="AK14" s="11">
+      <c r="AL14" s="11">
         <v>37.53</v>
       </c>
-      <c r="AL14" s="11">
+      <c r="AM14" s="11">
         <v>4.87</v>
       </c>
-      <c r="AM14" s="11">
+      <c r="AN14" s="11">
         <v>22.004999999999999</v>
       </c>
-      <c r="AN14" s="11">
+      <c r="AO14" s="11">
         <v>5.3250000000000002</v>
       </c>
-      <c r="AO14" s="11">
+      <c r="AP14" s="11">
         <v>1.79</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AQ14" s="11">
         <v>5.9749999999999996</v>
       </c>
-      <c r="AQ14" s="11">
+      <c r="AR14" s="11">
         <v>0.94550000000000001</v>
       </c>
-      <c r="AR14" s="11">
+      <c r="AS14" s="11">
         <v>6.3849999999999998</v>
       </c>
-      <c r="AS14" s="11">
+      <c r="AT14" s="11">
         <v>1.335</v>
       </c>
-      <c r="AT14" s="11">
+      <c r="AU14" s="11">
         <v>3.8250000000000002</v>
       </c>
-      <c r="AU14" s="11">
+      <c r="AV14" s="11">
         <v>0.53100000000000003</v>
       </c>
-      <c r="AV14" s="11">
+      <c r="AW14" s="11">
         <v>3.645</v>
       </c>
-      <c r="AW14" s="11">
+      <c r="AX14" s="11">
         <v>0.51049999999999995</v>
       </c>
-      <c r="AX14" s="11">
+      <c r="AY14" s="11">
         <v>4.04</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>0.93</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>90.5</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>47.723370000000003</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2.02746</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>15.96152</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9.8464399999999994</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>0.16241</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7.5625900000000001</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11.3154</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2.9523999999999999</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>0.37487999999999999</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>0.224</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>0.45374270840028946</v>
       </c>
-      <c r="P15" s="10">
+      <c r="Q15" s="10">
         <v>334.20804381805738</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>1193.75</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <v>253.04542627084484</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <v>0.44550393035216401</v>
       </c>
-      <c r="T15" s="6">
+      <c r="U15" s="6">
         <v>0.11485447208473924</v>
       </c>
-      <c r="U15" s="6">
+      <c r="V15" s="6">
         <v>1.170389963427735E-2</v>
       </c>
-      <c r="V15" s="6">
+      <c r="W15" s="6">
         <v>0.1665273019060276</v>
       </c>
-      <c r="W15" s="6">
+      <c r="X15" s="6">
         <v>1.4227913775656154E-2</v>
       </c>
-      <c r="X15" s="11">
+      <c r="Y15" s="11">
         <v>34.82</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Z15" s="11">
         <v>280.1166667</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="AA15" s="11">
         <v>247.62</v>
       </c>
-      <c r="AA15" s="11">
+      <c r="AB15" s="11">
         <v>42.79666667</v>
       </c>
-      <c r="AB15" s="11">
+      <c r="AC15" s="11">
         <v>89.136666669999997</v>
       </c>
-      <c r="AC15" s="11">
+      <c r="AD15" s="11">
         <v>113.6033333</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AE15" s="11">
         <v>7.3566666669999998</v>
       </c>
-      <c r="AE15" s="11">
+      <c r="AF15" s="11">
         <v>242.1466667</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AG15" s="11">
         <v>26.896666669999998</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AH15" s="11">
         <v>116.31</v>
       </c>
-      <c r="AH15" s="11">
+      <c r="AI15" s="11">
         <v>11.983333330000001</v>
       </c>
-      <c r="AI15" s="11">
+      <c r="AJ15" s="11">
         <v>79.956666670000004</v>
       </c>
-      <c r="AJ15" s="11">
+      <c r="AK15" s="11">
         <v>10.053333329999999</v>
       </c>
-      <c r="AK15" s="11">
+      <c r="AL15" s="11">
         <v>24.58</v>
       </c>
-      <c r="AL15" s="11">
+      <c r="AM15" s="11">
         <v>3.4366666669999999</v>
       </c>
-      <c r="AM15" s="11">
+      <c r="AN15" s="11">
         <v>16.263333329999998</v>
       </c>
-      <c r="AN15" s="11">
+      <c r="AO15" s="11">
         <v>4.5366666670000004</v>
       </c>
-      <c r="AO15" s="11">
+      <c r="AP15" s="11">
         <v>1.6333333329999999</v>
       </c>
-      <c r="AP15" s="11">
+      <c r="AQ15" s="11">
         <v>5.1066666669999998</v>
       </c>
-      <c r="AQ15" s="11">
+      <c r="AR15" s="11">
         <v>0.83299999999999996</v>
       </c>
-      <c r="AR15" s="11">
+      <c r="AS15" s="11">
         <v>5.5033333329999996</v>
       </c>
-      <c r="AS15" s="11">
+      <c r="AT15" s="11">
         <v>1.102666667</v>
       </c>
-      <c r="AT15" s="11">
+      <c r="AU15" s="11">
         <v>3.0866666669999998</v>
       </c>
-      <c r="AU15" s="11">
+      <c r="AV15" s="11">
         <v>0.43766666700000001</v>
       </c>
-      <c r="AV15" s="11">
+      <c r="AW15" s="11">
         <v>2.88</v>
       </c>
-      <c r="AW15" s="11">
+      <c r="AX15" s="11">
         <v>0.39333333300000001</v>
       </c>
-      <c r="AX15" s="11">
+      <c r="AY15" s="11">
         <v>3.0466666670000002</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>1.06</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>90.81</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>49.116700000000002</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>1.97875</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>14.091150000000001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>10.9870375</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>0.22055</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>6.8946624999999999</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>11.5334</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>2.7830124999999999</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>0.2641</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>0.19405</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>0.37857580301719929</v>
       </c>
-      <c r="P16" s="10">
+      <c r="Q16" s="10">
         <v>292.71970063700871</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>1316.0624999999998</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <v>518.78012340422777</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <v>0.25736676096219302</v>
       </c>
-      <c r="T16" s="6">
+      <c r="U16" s="6">
         <v>9.400300032299154E-2</v>
       </c>
-      <c r="U16" s="6">
+      <c r="V16" s="6">
         <v>6.3957601112190733E-3</v>
       </c>
-      <c r="V16" s="6">
+      <c r="W16" s="6">
         <v>0.12388023075423267</v>
       </c>
-      <c r="W16" s="6">
+      <c r="X16" s="6">
         <v>5.4664028063982129E-2</v>
       </c>
-      <c r="X16" s="11">
+      <c r="Y16" s="11">
         <v>40.445</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Z16" s="11">
         <v>325.31</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="AA16" s="11">
         <v>256.8</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AB16" s="11">
         <v>41.185000000000002</v>
       </c>
-      <c r="AB16" s="11">
+      <c r="AC16" s="11">
         <v>62.055</v>
       </c>
-      <c r="AC16" s="11">
+      <c r="AD16" s="11">
         <v>135.54</v>
       </c>
-      <c r="AD16" s="11">
+      <c r="AE16" s="11">
         <v>5.5449999999999999</v>
       </c>
-      <c r="AE16" s="11">
+      <c r="AF16" s="11">
         <v>149.47</v>
       </c>
-      <c r="AF16" s="11">
+      <c r="AG16" s="11">
         <v>34.04</v>
       </c>
-      <c r="AG16" s="11">
+      <c r="AH16" s="11">
         <v>113.455</v>
       </c>
-      <c r="AH16" s="11">
+      <c r="AI16" s="11">
         <v>10.055</v>
       </c>
-      <c r="AI16" s="11">
+      <c r="AJ16" s="11">
         <v>55.405000000000001</v>
       </c>
-      <c r="AJ16" s="11">
+      <c r="AK16" s="11">
         <v>8.4600000000000009</v>
       </c>
-      <c r="AK16" s="11">
+      <c r="AL16" s="11">
         <v>21.605</v>
       </c>
-      <c r="AL16" s="11">
+      <c r="AM16" s="11">
         <v>3.125</v>
       </c>
-      <c r="AM16" s="11">
+      <c r="AN16" s="11">
         <v>15.765000000000001</v>
       </c>
-      <c r="AN16" s="11">
+      <c r="AO16" s="11">
         <v>4.68</v>
       </c>
-      <c r="AO16" s="11">
+      <c r="AP16" s="11">
         <v>1.645</v>
       </c>
-      <c r="AP16" s="11">
+      <c r="AQ16" s="11">
         <v>5.7149999999999999</v>
       </c>
-      <c r="AQ16" s="11">
+      <c r="AR16" s="11">
         <v>1.04</v>
       </c>
-      <c r="AR16" s="11">
+      <c r="AS16" s="11">
         <v>6.7</v>
       </c>
-      <c r="AS16" s="11">
+      <c r="AT16" s="11">
         <v>1.375</v>
       </c>
-      <c r="AT16" s="11">
+      <c r="AU16" s="11">
         <v>3.8250000000000002</v>
       </c>
-      <c r="AU16" s="11">
+      <c r="AV16" s="11">
         <v>0.5605</v>
       </c>
-      <c r="AV16" s="11">
+      <c r="AW16" s="11">
         <v>3.6749999999999998</v>
       </c>
-      <c r="AW16" s="11">
+      <c r="AX16" s="11">
         <v>0.57550000000000001</v>
       </c>
-      <c r="AX16" s="11">
+      <c r="AY16" s="11">
         <v>3.23</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>1.9</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>90.95</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49.572375000000001</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2.6925875000000001</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14.891400000000001</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9.8004999999999995</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>0.16293750000000001</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5.5942749999999997</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9.7901375000000002</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3.1172875000000002</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1.1260749999999999</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>0.47642499999999999</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>0.98607979620313924</v>
       </c>
-      <c r="P17" s="10">
+      <c r="Q17" s="10">
         <v>590.42749979760117</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>1202.9000000000001</v>
       </c>
-      <c r="R17" s="10">
+      <c r="S17" s="10">
         <v>778.51728383276713</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>0.55785009078181103</v>
       </c>
-      <c r="T17" s="6">
+      <c r="U17" s="6">
         <v>0.2162118213843526</v>
       </c>
-      <c r="U17" s="6">
+      <c r="V17" s="6">
         <v>2.3735663977035467E-2</v>
       </c>
-      <c r="V17" s="6">
+      <c r="W17" s="6">
         <v>0.30266224567654376</v>
       </c>
-      <c r="W17" s="6">
+      <c r="X17" s="6">
         <v>5.3616554263046887E-2</v>
       </c>
-      <c r="X17" s="11">
+      <c r="Y17" s="11">
         <v>35.583333330000002</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Z17" s="11">
         <v>330.0733333</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="AA17" s="11">
         <v>170.03666670000001</v>
       </c>
-      <c r="AA17" s="11">
+      <c r="AB17" s="11">
         <v>33.75</v>
       </c>
-      <c r="AB17" s="11">
+      <c r="AC17" s="11">
         <v>39.603333329999998</v>
       </c>
-      <c r="AC17" s="11">
+      <c r="AD17" s="11">
         <v>67.510000000000005</v>
       </c>
-      <c r="AD17" s="11">
+      <c r="AE17" s="11">
         <v>25.536666669999999</v>
       </c>
-      <c r="AE17" s="11">
+      <c r="AF17" s="11">
         <v>330.24666669999999</v>
       </c>
-      <c r="AF17" s="11">
+      <c r="AG17" s="11">
         <v>34.403333330000002</v>
       </c>
-      <c r="AG17" s="11">
+      <c r="AH17" s="11">
         <v>205.64</v>
       </c>
-      <c r="AH17" s="11">
+      <c r="AI17" s="11">
         <v>39.256666670000001</v>
       </c>
-      <c r="AI17" s="11">
+      <c r="AJ17" s="11">
         <v>270.39</v>
       </c>
-      <c r="AJ17" s="11">
+      <c r="AK17" s="11">
         <v>25.206666670000001</v>
       </c>
-      <c r="AK17" s="11">
+      <c r="AL17" s="11">
         <v>53.78</v>
       </c>
-      <c r="AL17" s="11">
+      <c r="AM17" s="11">
         <v>6.6866666669999999</v>
       </c>
-      <c r="AM17" s="11">
+      <c r="AN17" s="11">
         <v>29.56</v>
       </c>
-      <c r="AN17" s="11">
+      <c r="AO17" s="11">
         <v>6.7466666670000004</v>
       </c>
-      <c r="AO17" s="11">
+      <c r="AP17" s="11">
         <v>2.173333333</v>
       </c>
-      <c r="AP17" s="11">
+      <c r="AQ17" s="11">
         <v>7.13</v>
       </c>
-      <c r="AQ17" s="11">
+      <c r="AR17" s="11">
         <v>1.0716666669999999</v>
       </c>
-      <c r="AR17" s="11">
+      <c r="AS17" s="11">
         <v>7.0366666670000004</v>
       </c>
-      <c r="AS17" s="11">
+      <c r="AT17" s="11">
         <v>1.352333333</v>
       </c>
-      <c r="AT17" s="11">
+      <c r="AU17" s="11">
         <v>3.9866666670000002</v>
       </c>
-      <c r="AU17" s="11">
+      <c r="AV17" s="11">
         <v>0.52600000000000002</v>
       </c>
-      <c r="AV17" s="11">
+      <c r="AW17" s="11">
         <v>3.6866666669999999</v>
       </c>
-      <c r="AW17" s="11">
+      <c r="AX17" s="11">
         <v>0.54033333299999997</v>
       </c>
-      <c r="AX17" s="11">
+      <c r="AY17" s="11">
         <v>5.23</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>1.95</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>91.18</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>50.212985709999998</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1.7516714289999999</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13.39591429</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12.01431429</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>0.228428571</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6.6442571429999999</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10.968500000000001</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2.5215142859999999</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>0.162157143</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>0.14634285699999999</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>0.38365438373366745</v>
       </c>
-      <c r="P18" s="10">
+      <c r="Q18" s="10">
         <v>290.095513992485</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="R18" s="5">
         <v>1017</v>
       </c>
-      <c r="R18" s="10">
+      <c r="S18" s="10">
         <v>186.01572267184267</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>0.27765266159226498</v>
       </c>
-      <c r="T18" s="6">
+      <c r="U18" s="6">
         <v>0.10225709202075588</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V18" s="6">
         <v>1.5275920849660245E-2</v>
       </c>
-      <c r="V18" s="6">
+      <c r="W18" s="6">
         <v>0.13349516305553402</v>
       </c>
-      <c r="W18" s="6">
+      <c r="X18" s="6">
         <v>1.0461770703370477E-2</v>
       </c>
-      <c r="X18" s="11">
+      <c r="Y18" s="11">
         <v>35.450000000000003</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Z18" s="11">
         <v>258.58999999999997</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="AA18" s="11">
         <v>296.45</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AB18" s="11">
         <v>45.07</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AC18" s="11">
         <v>114.35</v>
       </c>
-      <c r="AC18" s="11">
+      <c r="AD18" s="11">
         <v>112.74</v>
       </c>
-      <c r="AD18" s="11">
+      <c r="AE18" s="11">
         <v>6.25</v>
       </c>
-      <c r="AE18" s="11">
+      <c r="AF18" s="11">
         <v>186.02</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AG18" s="11">
         <v>25.07</v>
       </c>
-      <c r="AG18" s="11">
+      <c r="AH18" s="11">
         <v>100.56</v>
       </c>
-      <c r="AH18" s="11">
+      <c r="AI18" s="11">
         <v>9.84</v>
       </c>
-      <c r="AI18" s="11">
+      <c r="AJ18" s="11">
         <v>64.260000000000005</v>
       </c>
-      <c r="AJ18" s="11">
+      <c r="AK18" s="11">
         <v>8.2899999999999991</v>
       </c>
-      <c r="AK18" s="11">
+      <c r="AL18" s="11">
         <v>20.399999999999999</v>
       </c>
-      <c r="AL18" s="11">
+      <c r="AM18" s="11">
         <v>2.72</v>
       </c>
-      <c r="AM18" s="11">
+      <c r="AN18" s="11">
         <v>13.01</v>
       </c>
-      <c r="AN18" s="11">
+      <c r="AO18" s="11">
         <v>3.73</v>
       </c>
-      <c r="AO18" s="11">
+      <c r="AP18" s="11">
         <v>1.3480000000000001</v>
       </c>
-      <c r="AP18" s="11">
+      <c r="AQ18" s="11">
         <v>4.75</v>
       </c>
-      <c r="AQ18" s="11">
+      <c r="AR18" s="11">
         <v>0.81699999999999995</v>
       </c>
-      <c r="AR18" s="11">
+      <c r="AS18" s="11">
         <v>5.1100000000000003</v>
       </c>
-      <c r="AS18" s="11">
+      <c r="AT18" s="11">
         <v>1</v>
       </c>
-      <c r="AT18" s="11">
+      <c r="AU18" s="11">
         <v>2.96</v>
       </c>
-      <c r="AU18" s="11">
+      <c r="AV18" s="11">
         <v>0.42099999999999999</v>
       </c>
-      <c r="AV18" s="11">
+      <c r="AW18" s="11">
         <v>2.98</v>
       </c>
-      <c r="AW18" s="11">
+      <c r="AX18" s="11">
         <v>0.40300000000000002</v>
       </c>
-      <c r="AX18" s="11">
+      <c r="AY18" s="11">
         <v>2.74</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>1.96</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>91.24</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>49.554025000000003</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>2.0787499999999999</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>13.460825</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>12.2682</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>0.22897500000000001</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>6.4224125000000001</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>10.8177</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>2.6426124999999998</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>0.26634999999999998</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="3">
         <v>0.1899875</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>0.36111374279722025</v>
       </c>
-      <c r="P19" s="10">
+      <c r="Q19" s="10">
         <v>270.58620748217413</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="R19" s="5">
         <v>1496.3500000000001</v>
       </c>
-      <c r="R19" s="10">
+      <c r="S19" s="10">
         <v>526.05508062640399</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <v>0.209675161632847</v>
       </c>
-      <c r="T19" s="6">
+      <c r="U19" s="6">
         <v>9.1409603126664976E-2</v>
       </c>
-      <c r="U19" s="6">
+      <c r="V19" s="6">
         <v>1.3335965065345727E-2</v>
       </c>
-      <c r="V19" s="6">
+      <c r="W19" s="6">
         <v>0.13171552725517918</v>
       </c>
-      <c r="W19" s="6">
+      <c r="X19" s="6">
         <v>2.8788430351113829E-2</v>
       </c>
-      <c r="X19" s="11">
+      <c r="Y19" s="11">
         <v>47.69</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Z19" s="11">
         <v>422.39</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="AA19" s="11">
         <v>202.505</v>
       </c>
-      <c r="AA19" s="11">
+      <c r="AB19" s="11">
         <v>47.445</v>
       </c>
-      <c r="AB19" s="11">
+      <c r="AC19" s="11">
         <v>51.734999999999999</v>
       </c>
-      <c r="AC19" s="11">
+      <c r="AD19" s="11">
         <v>137.05500000000001</v>
       </c>
-      <c r="AD19" s="11">
+      <c r="AE19" s="11">
         <v>6.48</v>
       </c>
-      <c r="AE19" s="11">
+      <c r="AF19" s="11">
         <v>113.895</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AG19" s="11">
         <v>38.814999999999998</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AH19" s="11">
         <v>112.79</v>
       </c>
-      <c r="AH19" s="11">
+      <c r="AI19" s="11">
         <v>9.7200000000000006</v>
       </c>
-      <c r="AI19" s="11">
+      <c r="AJ19" s="11">
         <v>61.284999999999997</v>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AK19" s="11">
         <v>7.81</v>
       </c>
-      <c r="AK19" s="11">
+      <c r="AL19" s="11">
         <v>19.905000000000001</v>
       </c>
-      <c r="AL19" s="11">
+      <c r="AM19" s="11">
         <v>2.77</v>
       </c>
-      <c r="AM19" s="11">
+      <c r="AN19" s="11">
         <v>14.43</v>
       </c>
-      <c r="AN19" s="11">
+      <c r="AO19" s="11">
         <v>4.34</v>
       </c>
-      <c r="AO19" s="11">
+      <c r="AP19" s="11">
         <v>1.605</v>
       </c>
-      <c r="AP19" s="11">
+      <c r="AQ19" s="11">
         <v>6.08</v>
       </c>
-      <c r="AQ19" s="11">
+      <c r="AR19" s="11">
         <v>1.105</v>
       </c>
-      <c r="AR19" s="11">
+      <c r="AS19" s="11">
         <v>7.5350000000000001</v>
       </c>
-      <c r="AS19" s="11">
+      <c r="AT19" s="11">
         <v>1.5549999999999999</v>
       </c>
-      <c r="AT19" s="11">
+      <c r="AU19" s="11">
         <v>4.5650000000000004</v>
       </c>
-      <c r="AU19" s="11">
+      <c r="AV19" s="11">
         <v>0.64449999999999996</v>
       </c>
-      <c r="AV19" s="11">
+      <c r="AW19" s="11">
         <v>4.5750000000000002</v>
       </c>
-      <c r="AW19" s="11">
+      <c r="AX19" s="11">
         <v>0.69950000000000001</v>
       </c>
-      <c r="AX19" s="11">
+      <c r="AY19" s="11">
         <v>3.15</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>1.99</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>91.61</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>50.403720000000007</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1.5643</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13.51858</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11.56622</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>0.23049999999999998</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6.9154399999999994</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11.401079999999999</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2.5348800000000002</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>0.20991999999999997</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>0.13342000000000001</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5">
         <v>1324.6</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="6">
+      <c r="S20" s="5"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="6">
         <v>8.7589169716887724E-2</v>
       </c>
-      <c r="U20" s="6">
+      <c r="V20" s="6">
         <v>1.7171585226047632E-2</v>
       </c>
-      <c r="V20" s="6">
+      <c r="W20" s="6">
         <v>0.12526132754264729</v>
       </c>
-      <c r="W20" s="6">
+      <c r="X20" s="6">
         <v>4.5737426855945763E-2</v>
       </c>
-      <c r="X20" s="11">
+      <c r="Y20" s="11">
         <v>47.1</v>
       </c>
-      <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="11">
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11">
         <v>35.86</v>
       </c>
-      <c r="AB20" s="11">
+      <c r="AC20" s="11">
         <v>47.88</v>
       </c>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11">
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11">
         <v>3.4060000000000001</v>
       </c>
-      <c r="AE20" s="11">
+      <c r="AF20" s="11">
         <v>109.14000000000001</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AG20" s="11">
         <v>27.262</v>
       </c>
-      <c r="AG20" s="11">
+      <c r="AH20" s="11">
         <v>83.08</v>
       </c>
-      <c r="AH20" s="11">
+      <c r="AI20" s="11">
         <v>7.4779999999999998</v>
       </c>
-      <c r="AI20" s="11">
+      <c r="AJ20" s="11">
         <v>46</v>
       </c>
-      <c r="AJ20" s="11">
+      <c r="AK20" s="11">
         <v>5.6639999999999997</v>
       </c>
-      <c r="AK20" s="11">
+      <c r="AL20" s="11">
         <v>12.218</v>
       </c>
-      <c r="AL20" s="11">
+      <c r="AM20" s="11">
         <v>1.9344000000000001</v>
       </c>
-      <c r="AM20" s="11">
+      <c r="AN20" s="11">
         <v>10.172000000000001</v>
       </c>
-      <c r="AN20" s="11">
+      <c r="AO20" s="11">
         <v>3.3699999999999997</v>
       </c>
-      <c r="AO20" s="11">
+      <c r="AP20" s="11">
         <v>1.1958</v>
       </c>
-      <c r="AP20" s="11">
+      <c r="AQ20" s="11">
         <v>3.8579999999999997</v>
       </c>
-      <c r="AQ20" s="11">
+      <c r="AR20" s="11">
         <v>0.66899999999999993</v>
       </c>
-      <c r="AR20" s="11">
+      <c r="AS20" s="11">
         <v>5.1639999999999997</v>
       </c>
-      <c r="AS20" s="11">
+      <c r="AT20" s="11">
         <v>1.0678000000000001</v>
       </c>
-      <c r="AT20" s="11">
+      <c r="AU20" s="11">
         <v>3.1859999999999999</v>
       </c>
-      <c r="AU20" s="11">
+      <c r="AV20" s="11">
         <v>0.46840000000000004</v>
       </c>
-      <c r="AV20" s="11">
+      <c r="AW20" s="11">
         <v>3.1219999999999999</v>
       </c>
-      <c r="AW20" s="11">
+      <c r="AX20" s="11">
         <v>0.42959999999999993</v>
       </c>
-      <c r="AX20" s="11">
+      <c r="AY20" s="11">
         <v>2.1720000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>2.09</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>92.24</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>49.17915</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2.0515500000000002</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14.165050000000001</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11.2148</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>0.210225</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6.5688624999999998</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11.2436875</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3.0248124999999999</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>0.318025</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>0.22642499999999999</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>0.44675142236405979</v>
       </c>
-      <c r="P21" s="10">
+      <c r="Q21" s="10">
         <v>337.90318453759676</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="R21" s="5">
         <v>1331.125</v>
       </c>
-      <c r="R21" s="10">
+      <c r="S21" s="10">
         <v>299.56409015684835</v>
       </c>
-      <c r="S21" s="4">
+      <c r="T21" s="4">
         <v>0.31925980341386101</v>
       </c>
-      <c r="T21" s="6">
+      <c r="U21" s="6">
         <v>0.13364683127596125</v>
       </c>
-      <c r="U21" s="6">
+      <c r="V21" s="6">
         <v>3.1172025205061942E-2</v>
       </c>
-      <c r="V21" s="6">
+      <c r="W21" s="6">
         <v>0.21482307852497642</v>
       </c>
-      <c r="W21" s="6">
+      <c r="X21" s="6">
         <v>6.2333365139569108E-2</v>
       </c>
-      <c r="X21" s="11">
+      <c r="Y21" s="11">
         <v>43.03</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="Z21" s="11">
         <v>332.69499999999999</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="AA21" s="11">
         <v>126.27500000000001</v>
       </c>
-      <c r="AA21" s="11">
+      <c r="AB21" s="11">
         <v>41.524999999999999</v>
       </c>
-      <c r="AB21" s="11">
+      <c r="AC21" s="11">
         <v>44.55</v>
       </c>
-      <c r="AC21" s="11">
+      <c r="AD21" s="11">
         <v>119.145</v>
       </c>
-      <c r="AD21" s="11">
+      <c r="AE21" s="11">
         <v>7.3550000000000004</v>
       </c>
-      <c r="AE21" s="11">
+      <c r="AF21" s="11">
         <v>153.72</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AG21" s="11">
         <v>32.655000000000001</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AH21" s="11">
         <v>112.82</v>
       </c>
-      <c r="AH21" s="11">
+      <c r="AI21" s="11">
         <v>10.494999999999999</v>
       </c>
-      <c r="AI21" s="11">
+      <c r="AJ21" s="11">
         <v>73.12</v>
       </c>
-      <c r="AJ21" s="11">
+      <c r="AK21" s="11">
         <v>8.83</v>
       </c>
-      <c r="AK21" s="11">
+      <c r="AL21" s="11">
         <v>21.48</v>
       </c>
-      <c r="AL21" s="11">
+      <c r="AM21" s="11">
         <v>2.9</v>
       </c>
-      <c r="AM21" s="11">
+      <c r="AN21" s="11">
         <v>15.005000000000001</v>
       </c>
-      <c r="AN21" s="11">
+      <c r="AO21" s="11">
         <v>4.3949999999999996</v>
       </c>
-      <c r="AO21" s="11">
+      <c r="AP21" s="11">
         <v>1.5315000000000001</v>
       </c>
-      <c r="AP21" s="11">
+      <c r="AQ21" s="11">
         <v>5.36</v>
       </c>
-      <c r="AQ21" s="11">
+      <c r="AR21" s="11">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AR21" s="11">
+      <c r="AS21" s="11">
         <v>6.3250000000000002</v>
       </c>
-      <c r="AS21" s="11">
+      <c r="AT21" s="11">
         <v>1.34</v>
       </c>
-      <c r="AT21" s="11">
+      <c r="AU21" s="11">
         <v>3.79</v>
       </c>
-      <c r="AU21" s="11">
+      <c r="AV21" s="11">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AV21" s="11">
+      <c r="AW21" s="11">
         <v>3.585</v>
       </c>
-      <c r="AW21" s="11">
+      <c r="AX21" s="11">
         <v>0.52900000000000003</v>
       </c>
-      <c r="AX21" s="11">
+      <c r="AY21" s="11">
         <v>3.085</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>2.25</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>92.69</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50.133400000000002</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1.4154599999999999</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14.19744</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10.78082</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>0.20948000000000003</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7.5076400000000003</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12.0204</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2.46882</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>0.16999999999999998</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>0.13588</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5">
         <v>1234.2</v>
       </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="6">
+      <c r="S22" s="5"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="6">
         <v>7.6136810342353201E-2</v>
       </c>
-      <c r="U22" s="6">
+      <c r="V22" s="6">
         <v>1.8457718429606567E-2</v>
       </c>
-      <c r="V22" s="6">
+      <c r="W22" s="6">
         <v>0.13909586847253111</v>
       </c>
-      <c r="W22" s="6">
+      <c r="X22" s="6">
         <v>2.9314021820873119E-2</v>
       </c>
-      <c r="X22" s="11">
+      <c r="Y22" s="11">
         <v>45.08</v>
       </c>
-      <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="11">
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11">
         <v>34.923999999999999</v>
       </c>
-      <c r="AB22" s="11">
+      <c r="AC22" s="11">
         <v>55.660000000000004</v>
       </c>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11">
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11">
         <v>2.5880000000000001</v>
       </c>
-      <c r="AE22" s="11">
+      <c r="AF22" s="11">
         <v>102.67999999999999</v>
       </c>
-      <c r="AF22" s="11">
+      <c r="AG22" s="11">
         <v>25.756</v>
       </c>
-      <c r="AG22" s="11">
+      <c r="AH22" s="11">
         <v>74.440000000000012</v>
       </c>
-      <c r="AH22" s="11">
+      <c r="AI22" s="11">
         <v>5.8240000000000007</v>
       </c>
-      <c r="AI22" s="11">
+      <c r="AJ22" s="11">
         <v>36.519999999999996</v>
       </c>
-      <c r="AJ22" s="11">
+      <c r="AK22" s="11">
         <v>4.5439999999999996</v>
       </c>
-      <c r="AK22" s="11">
+      <c r="AL22" s="11">
         <v>10.501999999999999</v>
       </c>
-      <c r="AL22" s="11">
+      <c r="AM22" s="11">
         <v>1.7006000000000001</v>
       </c>
-      <c r="AM22" s="11">
+      <c r="AN22" s="11">
         <v>9.2099999999999991</v>
       </c>
-      <c r="AN22" s="11">
+      <c r="AO22" s="11">
         <v>3.0019999999999998</v>
       </c>
-      <c r="AO22" s="11">
+      <c r="AP22" s="11">
         <v>1.1168</v>
       </c>
-      <c r="AP22" s="11">
+      <c r="AQ22" s="11">
         <v>3.6239999999999997</v>
       </c>
-      <c r="AQ22" s="11">
+      <c r="AR22" s="11">
         <v>0.65060000000000007</v>
       </c>
-      <c r="AR22" s="11">
+      <c r="AS22" s="11">
         <v>4.742</v>
       </c>
-      <c r="AS22" s="11">
+      <c r="AT22" s="11">
         <v>1.0167999999999999</v>
       </c>
-      <c r="AT22" s="11">
+      <c r="AU22" s="11">
         <v>3.0179999999999998</v>
       </c>
-      <c r="AU22" s="11">
+      <c r="AV22" s="11">
         <v>0.43000000000000005</v>
       </c>
-      <c r="AV22" s="11">
+      <c r="AW22" s="11">
         <v>2.95</v>
       </c>
-      <c r="AW22" s="11">
+      <c r="AX22" s="11">
         <v>0.40039999999999998</v>
       </c>
-      <c r="AX22" s="11">
+      <c r="AY22" s="11">
         <v>1.8140000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>2.29</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>92.9</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>51.16722</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1.7174800000000001</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13.61936</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11.96448</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>0.22508</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6.6228999999999996</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10.76004</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2.5560999999999998</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>0.22784000000000004</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>0.18587999999999999</v>
       </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5">
         <v>1365.4</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="6">
+      <c r="S23" s="5"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="6">
         <v>0.12031948356809134</v>
       </c>
-      <c r="U23" s="6">
+      <c r="V23" s="6">
         <v>9.9634062418168922E-3</v>
       </c>
-      <c r="V23" s="6">
+      <c r="W23" s="6">
         <v>0.16512286303393964</v>
       </c>
-      <c r="W23" s="6">
+      <c r="X23" s="6">
         <v>7.2462632808104679E-2</v>
       </c>
-      <c r="X23" s="11">
+      <c r="Y23" s="11">
         <v>45.379999999999995</v>
       </c>
-      <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
-      <c r="AA23" s="11">
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11">
         <v>36</v>
       </c>
-      <c r="AB23" s="11">
+      <c r="AC23" s="11">
         <v>41.94</v>
       </c>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11">
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11">
         <v>3.4180000000000001</v>
       </c>
-      <c r="AE23" s="11">
+      <c r="AF23" s="11">
         <v>91.360000000000014</v>
       </c>
-      <c r="AF23" s="11">
+      <c r="AG23" s="11">
         <v>31.994</v>
       </c>
-      <c r="AG23" s="11">
+      <c r="AH23" s="11">
         <v>89.5</v>
       </c>
-      <c r="AH23" s="11">
+      <c r="AI23" s="11">
         <v>7.6320000000000006</v>
       </c>
-      <c r="AI23" s="11">
+      <c r="AJ23" s="11">
         <v>45.42</v>
       </c>
-      <c r="AJ23" s="11">
+      <c r="AK23" s="11">
         <v>5.6899999999999995</v>
       </c>
-      <c r="AK23" s="11">
+      <c r="AL23" s="11">
         <v>12.587999999999999</v>
       </c>
-      <c r="AL23" s="11">
+      <c r="AM23" s="11">
         <v>1.9812000000000001</v>
       </c>
-      <c r="AM23" s="11">
+      <c r="AN23" s="11">
         <v>11.102</v>
       </c>
-      <c r="AN23" s="11">
+      <c r="AO23" s="11">
         <v>3.6340000000000003</v>
       </c>
-      <c r="AO23" s="11">
+      <c r="AP23" s="11">
         <v>1.2756000000000001</v>
       </c>
-      <c r="AP23" s="11">
+      <c r="AQ23" s="11">
         <v>4.4340000000000002</v>
       </c>
-      <c r="AQ23" s="11">
+      <c r="AR23" s="11">
         <v>0.80079999999999996</v>
       </c>
-      <c r="AR23" s="11">
+      <c r="AS23" s="11">
         <v>5.7560000000000002</v>
       </c>
-      <c r="AS23" s="11">
+      <c r="AT23" s="11">
         <v>1.2356</v>
       </c>
-      <c r="AT23" s="11">
+      <c r="AU23" s="11">
         <v>3.4039999999999999</v>
       </c>
-      <c r="AU23" s="11">
+      <c r="AV23" s="11">
         <v>0.5262</v>
       </c>
-      <c r="AV23" s="11">
+      <c r="AW23" s="11">
         <v>3.7679999999999998</v>
       </c>
-      <c r="AW23" s="11">
+      <c r="AX23" s="11">
         <v>0.52699999999999991</v>
       </c>
-      <c r="AX23" s="11">
+      <c r="AY23" s="11">
         <v>2.3980000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>2.4700000000000002</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>93.76</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>48.345087499999998</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1.667025</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15.7478625</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9.5841624999999997</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>0.17483750000000001</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8.1546249999999993</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11.6201375</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2.4815999999999998</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>0.30198750000000002</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>0.19183749999999999</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>0.27475963486832916</v>
       </c>
-      <c r="P24" s="10">
+      <c r="Q24" s="10">
         <v>220.01794460099333</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="R24" s="5">
         <v>1441.9374999999998</v>
       </c>
-      <c r="R24" s="10">
+      <c r="S24" s="10">
         <v>281.98485983698998</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <v>0.25806727138916202</v>
       </c>
-      <c r="T24" s="6">
+      <c r="U24" s="6">
         <v>8.8546649126497456E-2</v>
       </c>
-      <c r="U24" s="6">
+      <c r="V24" s="6">
         <v>4.8903274704524945E-3</v>
       </c>
-      <c r="V24" s="6">
+      <c r="W24" s="6">
         <v>0.11539834076527515</v>
       </c>
-      <c r="W24" s="6">
+      <c r="X24" s="6">
         <v>1.1983712954042649E-2</v>
       </c>
-      <c r="X24" s="11">
+      <c r="Y24" s="11">
         <v>49.31</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="Z24" s="11">
         <v>419.41</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="AA24" s="11">
         <v>116.2</v>
       </c>
-      <c r="AA24" s="11">
+      <c r="AB24" s="11">
         <v>48.08666667</v>
       </c>
-      <c r="AB24" s="11">
+      <c r="AC24" s="11">
         <v>47.423333329999998</v>
       </c>
-      <c r="AC24" s="11">
+      <c r="AD24" s="11">
         <v>98.853333329999998</v>
       </c>
-      <c r="AD24" s="11">
+      <c r="AE24" s="11">
         <v>3.75</v>
       </c>
-      <c r="AE24" s="11">
+      <c r="AF24" s="11">
         <v>84.16</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AG24" s="11">
         <v>33.293333330000003</v>
       </c>
-      <c r="AG24" s="11">
+      <c r="AH24" s="11">
         <v>85.05</v>
       </c>
-      <c r="AH24" s="11">
+      <c r="AI24" s="11">
         <v>5.766666667</v>
       </c>
-      <c r="AI24" s="11">
+      <c r="AJ24" s="11">
         <v>36.576666670000002</v>
       </c>
-      <c r="AJ24" s="11">
+      <c r="AK24" s="11">
         <v>5.09</v>
       </c>
-      <c r="AK24" s="11">
+      <c r="AL24" s="11">
         <v>13.42333333</v>
       </c>
-      <c r="AL24" s="11">
+      <c r="AM24" s="11">
         <v>2.12</v>
       </c>
-      <c r="AM24" s="11">
+      <c r="AN24" s="11">
         <v>10.73666667</v>
       </c>
-      <c r="AN24" s="11">
+      <c r="AO24" s="11">
         <v>3.463333333</v>
       </c>
-      <c r="AO24" s="11">
+      <c r="AP24" s="11">
         <v>1.2833333330000001</v>
       </c>
-      <c r="AP24" s="11">
+      <c r="AQ24" s="11">
         <v>4.846666667</v>
       </c>
-      <c r="AQ24" s="11">
+      <c r="AR24" s="11">
         <v>0.86133333300000003</v>
       </c>
-      <c r="AR24" s="11">
+      <c r="AS24" s="11">
         <v>6.3033333330000003</v>
       </c>
-      <c r="AS24" s="11">
+      <c r="AT24" s="11">
         <v>1.346666667</v>
       </c>
-      <c r="AT24" s="11">
+      <c r="AU24" s="11">
         <v>3.94</v>
       </c>
-      <c r="AU24" s="11">
+      <c r="AV24" s="11">
         <v>0.59166666700000003</v>
       </c>
-      <c r="AV24" s="11">
+      <c r="AW24" s="11">
         <v>4.01</v>
       </c>
-      <c r="AW24" s="11">
+      <c r="AX24" s="11">
         <v>0.59366666700000004</v>
       </c>
-      <c r="AX24" s="11">
+      <c r="AY24" s="11">
         <v>2.3633333329999999</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>2.56</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>94.45</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>51.226320000000001</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>1.6838799999999998</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>13.59042</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>12.101840000000001</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>0.23302</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>6.9566999999999997</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>10.946400000000001</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>2.4072400000000003</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>0.15970000000000001</v>
       </c>
-      <c r="N25" s="3">
+      <c r="O25" s="3">
         <v>0.16040000000000001</v>
       </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5">
         <v>1333.3</v>
       </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="6">
+      <c r="S25" s="5"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="6">
         <v>8.6167683489938682E-2</v>
       </c>
-      <c r="U25" s="6">
+      <c r="V25" s="6">
         <v>2.4746488695683418E-2</v>
       </c>
-      <c r="V25" s="6">
+      <c r="W25" s="6">
         <v>0.12172060098625259</v>
       </c>
-      <c r="W25" s="6">
+      <c r="X25" s="6">
         <v>3.4500616766766579E-2</v>
       </c>
-      <c r="X25" s="11">
+      <c r="Y25" s="11">
         <v>46.739999999999995</v>
       </c>
-      <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="11">
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11">
         <v>37.020000000000003</v>
       </c>
-      <c r="AB25" s="11">
+      <c r="AC25" s="11">
         <v>49.779999999999994</v>
       </c>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11">
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11">
         <v>2.7359999999999998</v>
       </c>
-      <c r="AE25" s="11">
+      <c r="AF25" s="11">
         <v>82.4</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AG25" s="11">
         <v>33.779999999999994</v>
       </c>
-      <c r="AG25" s="11">
+      <c r="AH25" s="11">
         <v>90.52000000000001</v>
       </c>
-      <c r="AH25" s="11">
+      <c r="AI25" s="11">
         <v>5.9140000000000006</v>
       </c>
-      <c r="AI25" s="11">
+      <c r="AJ25" s="11">
         <v>33.6</v>
       </c>
-      <c r="AJ25" s="11">
+      <c r="AK25" s="11">
         <v>4.9240000000000004</v>
       </c>
-      <c r="AK25" s="11">
+      <c r="AL25" s="11">
         <v>11.312000000000001</v>
       </c>
-      <c r="AL25" s="11">
+      <c r="AM25" s="11">
         <v>1.8896000000000002</v>
       </c>
-      <c r="AM25" s="11">
+      <c r="AN25" s="11">
         <v>10.612</v>
       </c>
-      <c r="AN25" s="11">
+      <c r="AO25" s="11">
         <v>3.6859999999999999</v>
       </c>
-      <c r="AO25" s="11">
+      <c r="AP25" s="11">
         <v>1.2322</v>
       </c>
-      <c r="AP25" s="11">
+      <c r="AQ25" s="11">
         <v>4.5260000000000007</v>
       </c>
-      <c r="AQ25" s="11">
+      <c r="AR25" s="11">
         <v>0.80719999999999992</v>
       </c>
-      <c r="AR25" s="11">
+      <c r="AS25" s="11">
         <v>6.1440000000000001</v>
       </c>
-      <c r="AS25" s="11">
+      <c r="AT25" s="11">
         <v>1.3077999999999999</v>
       </c>
-      <c r="AT25" s="11">
+      <c r="AU25" s="11">
         <v>3.7300000000000004</v>
       </c>
-      <c r="AU25" s="11">
+      <c r="AV25" s="11">
         <v>0.57179999999999997</v>
       </c>
-      <c r="AV25" s="11">
+      <c r="AW25" s="11">
         <v>4.016</v>
       </c>
-      <c r="AW25" s="11">
+      <c r="AX25" s="11">
         <v>0.55919999999999992</v>
       </c>
-      <c r="AX25" s="11">
+      <c r="AY25" s="11">
         <v>2.3559999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>2.57</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>94.87</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49.96734</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1.7853600000000001</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13.34778</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12.462680000000002</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>0.2109</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6.9517399999999991</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10.619140000000002</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2.4779</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>0.19438</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>0.18764</v>
       </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5">
         <v>1440.3</v>
       </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="6">
+      <c r="S26" s="5"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="6">
         <v>8.0116777654441307E-2</v>
       </c>
-      <c r="U26" s="6">
+      <c r="V26" s="6">
         <v>2.034732052192197E-2</v>
       </c>
-      <c r="V26" s="6">
+      <c r="W26" s="6">
         <v>0.12792079242140986</v>
       </c>
-      <c r="W26" s="6">
+      <c r="X26" s="6">
         <v>3.8817926853477683E-3</v>
       </c>
-      <c r="X26" s="11">
+      <c r="Y26" s="11">
         <v>44.82</v>
       </c>
-      <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
-      <c r="AA26" s="11">
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11">
         <v>36.42</v>
       </c>
-      <c r="AB26" s="11">
+      <c r="AC26" s="11">
         <v>61.36</v>
       </c>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11">
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11">
         <v>3.0780000000000003</v>
       </c>
-      <c r="AE26" s="11">
+      <c r="AF26" s="11">
         <v>85.62</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AG26" s="11">
         <v>36.82</v>
       </c>
-      <c r="AG26" s="11">
+      <c r="AH26" s="11">
         <v>104.88</v>
       </c>
-      <c r="AH26" s="11">
+      <c r="AI26" s="11">
         <v>7.5020000000000007</v>
       </c>
-      <c r="AI26" s="11">
+      <c r="AJ26" s="11">
         <v>39.160000000000004</v>
       </c>
-      <c r="AJ26" s="11">
+      <c r="AK26" s="11">
         <v>5.8759999999999994</v>
       </c>
-      <c r="AK26" s="11">
+      <c r="AL26" s="11">
         <v>13.375999999999999</v>
       </c>
-      <c r="AL26" s="11">
+      <c r="AM26" s="11">
         <v>2.1686000000000005</v>
       </c>
-      <c r="AM26" s="11">
+      <c r="AN26" s="11">
         <v>12.114000000000001</v>
       </c>
-      <c r="AN26" s="11">
+      <c r="AO26" s="11">
         <v>4.0900000000000007</v>
       </c>
-      <c r="AO26" s="11">
+      <c r="AP26" s="11">
         <v>1.3094000000000001</v>
       </c>
-      <c r="AP26" s="11">
+      <c r="AQ26" s="11">
         <v>5.0600000000000005</v>
       </c>
-      <c r="AQ26" s="11">
+      <c r="AR26" s="11">
         <v>0.89759999999999995</v>
       </c>
-      <c r="AR26" s="11">
+      <c r="AS26" s="11">
         <v>6.5019999999999998</v>
       </c>
-      <c r="AS26" s="11">
+      <c r="AT26" s="11">
         <v>1.4086000000000001</v>
       </c>
-      <c r="AT26" s="11">
+      <c r="AU26" s="11">
         <v>4.6319999999999997</v>
       </c>
-      <c r="AU26" s="11">
+      <c r="AV26" s="11">
         <v>0.60739999999999994</v>
       </c>
-      <c r="AV26" s="11">
+      <c r="AW26" s="11">
         <v>4.2699999999999996</v>
       </c>
-      <c r="AW26" s="11">
+      <c r="AX26" s="11">
         <v>0.58679999999999999</v>
       </c>
-      <c r="AX26" s="11">
+      <c r="AY26" s="11">
         <v>2.7279999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>2.44</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>95.62</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>49.535400000000003</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1.1692625000000001</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15.530250000000001</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9.0210124999999994</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>0.1668625</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8.6867000000000001</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11.9118625</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2.2833125000000001</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7.6187500000000005E-2</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9.8587499999999995E-2</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <v>0.17617514086868438</v>
       </c>
-      <c r="P27" s="10">
+      <c r="Q27" s="10">
         <v>157.35291574439486</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="10">
+      <c r="R27" s="5"/>
+      <c r="S27" s="10">
         <v>49.93331700448207</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <v>0.189408951867506</v>
       </c>
-      <c r="T27" s="6">
+      <c r="U27" s="6">
         <v>0.10339749146964783</v>
       </c>
-      <c r="U27" s="6">
+      <c r="V27" s="6">
         <v>2.3059636030318121E-2</v>
       </c>
-      <c r="V27" s="6">
+      <c r="W27" s="6">
         <v>0.14815138247509241</v>
       </c>
-      <c r="W27" s="6">
+      <c r="X27" s="6">
         <v>4.1205809166432149E-2</v>
       </c>
-      <c r="X27" s="11">
+      <c r="Y27" s="11">
         <v>39.4</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="Z27" s="11">
         <v>266.73</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="AA27" s="11">
         <v>403.3</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AB27" s="11">
         <v>44.68</v>
       </c>
-      <c r="AB27" s="11">
+      <c r="AC27" s="11">
         <v>130.74</v>
       </c>
-      <c r="AC27" s="11">
+      <c r="AD27" s="11">
         <v>115.18</v>
       </c>
-      <c r="AD27" s="11">
+      <c r="AE27" s="11">
         <v>1.405</v>
       </c>
-      <c r="AE27" s="11">
+      <c r="AF27" s="11">
         <v>102.05</v>
       </c>
-      <c r="AF27" s="11">
+      <c r="AG27" s="11">
         <v>24.204999999999998</v>
       </c>
-      <c r="AG27" s="11">
+      <c r="AH27" s="11">
         <v>58.734999999999999</v>
       </c>
-      <c r="AH27" s="11">
+      <c r="AI27" s="11">
         <v>2</v>
       </c>
-      <c r="AI27" s="11">
+      <c r="AJ27" s="11">
         <v>12.545</v>
       </c>
-      <c r="AJ27" s="11">
+      <c r="AK27" s="11">
         <v>2.61</v>
       </c>
-      <c r="AK27" s="11">
+      <c r="AL27" s="11">
         <v>7.835</v>
       </c>
-      <c r="AL27" s="11">
+      <c r="AM27" s="11">
         <v>1.3009999999999999</v>
       </c>
-      <c r="AM27" s="11">
+      <c r="AN27" s="11">
         <v>7.07</v>
       </c>
-      <c r="AN27" s="11">
+      <c r="AO27" s="11">
         <v>2.5350000000000001</v>
       </c>
-      <c r="AO27" s="11">
+      <c r="AP27" s="11">
         <v>0.997</v>
       </c>
-      <c r="AP27" s="11">
+      <c r="AQ27" s="11">
         <v>3.4</v>
       </c>
-      <c r="AQ27" s="11">
+      <c r="AR27" s="11">
         <v>0.56200000000000006</v>
       </c>
-      <c r="AR27" s="11">
+      <c r="AS27" s="11">
         <v>4.38</v>
       </c>
-      <c r="AS27" s="11">
+      <c r="AT27" s="11">
         <v>0.9375</v>
       </c>
-      <c r="AT27" s="11">
+      <c r="AU27" s="11">
         <v>2.8250000000000002</v>
       </c>
-      <c r="AU27" s="11">
+      <c r="AV27" s="11">
         <v>0.40350000000000003</v>
       </c>
-      <c r="AV27" s="11">
+      <c r="AW27" s="11">
         <v>2.6150000000000002</v>
       </c>
-      <c r="AW27" s="11">
+      <c r="AX27" s="11">
         <v>0.38</v>
       </c>
-      <c r="AX27" s="11">
+      <c r="AY27" s="11">
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>2.29</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>96.18</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>50.292059999999999</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>1.1376800000000002</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>14.61354</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>9.5574199999999987</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>0.19146000000000002</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>8.3116599999999998</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>12.3893</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <v>2.4261399999999997</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>4.6519999999999999E-2</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28" s="3">
         <v>8.0259999999999998E-2</v>
       </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5">
         <v>1135.5</v>
       </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="6">
+      <c r="S28" s="5"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="6">
         <v>5.670625792649394E-2</v>
       </c>
-      <c r="U28" s="6">
+      <c r="V28" s="6">
         <v>1.3588128805157647E-2</v>
       </c>
-      <c r="V28" s="6">
+      <c r="W28" s="6">
         <v>8.034652265376252E-2</v>
       </c>
-      <c r="W28" s="6">
+      <c r="X28" s="6">
         <v>4.4137002708314138E-2</v>
       </c>
-      <c r="X28" s="11">
+      <c r="Y28" s="11">
         <v>46.5</v>
       </c>
-      <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
-      <c r="AA28" s="11">
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11">
         <v>36.200000000000003</v>
       </c>
-      <c r="AB28" s="11">
+      <c r="AC28" s="11">
         <v>76.059999999999988</v>
       </c>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11">
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11">
         <v>0.47919999999999996</v>
       </c>
-      <c r="AE28" s="11">
+      <c r="AF28" s="11">
         <v>81.679999999999993</v>
       </c>
-      <c r="AF28" s="11">
+      <c r="AG28" s="11">
         <v>24.078000000000003</v>
       </c>
-      <c r="AG28" s="11">
+      <c r="AH28" s="11">
         <v>55.48</v>
       </c>
-      <c r="AH28" s="11">
+      <c r="AI28" s="11">
         <v>1.1565999999999999</v>
       </c>
-      <c r="AI28" s="11">
+      <c r="AJ28" s="11">
         <v>6.3860000000000001</v>
       </c>
-      <c r="AJ28" s="11">
+      <c r="AK28" s="11">
         <v>1.6596</v>
       </c>
-      <c r="AK28" s="11">
+      <c r="AL28" s="11">
         <v>5.1360000000000001</v>
       </c>
-      <c r="AL28" s="11">
+      <c r="AM28" s="11">
         <v>1.0257999999999998</v>
       </c>
-      <c r="AM28" s="11">
+      <c r="AN28" s="11">
         <v>6.5400000000000009</v>
       </c>
-      <c r="AN28" s="11">
+      <c r="AO28" s="11">
         <v>2.496</v>
       </c>
-      <c r="AO28" s="11">
+      <c r="AP28" s="11">
         <v>0.94640000000000002</v>
       </c>
-      <c r="AP28" s="11">
+      <c r="AQ28" s="11">
         <v>3.28</v>
       </c>
-      <c r="AQ28" s="11">
+      <c r="AR28" s="11">
         <v>0.56979999999999997</v>
       </c>
-      <c r="AR28" s="11">
+      <c r="AS28" s="11">
         <v>4.2240000000000002</v>
       </c>
-      <c r="AS28" s="11">
+      <c r="AT28" s="11">
         <v>0.89559999999999995</v>
       </c>
-      <c r="AT28" s="11">
+      <c r="AU28" s="11">
         <v>2.7299999999999995</v>
       </c>
-      <c r="AU28" s="11">
+      <c r="AV28" s="11">
         <v>0.39239999999999997</v>
       </c>
-      <c r="AV28" s="11">
+      <c r="AW28" s="11">
         <v>2.6720000000000002</v>
       </c>
-      <c r="AW28" s="11">
+      <c r="AX28" s="11">
         <v>0.36159999999999998</v>
       </c>
-      <c r="AX28" s="11">
+      <c r="AY28" s="11">
         <v>1.4999999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>2.12</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>97.19</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>49.732087499999999</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1.2368874999999999</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>14.930787499999999</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>9.2991124999999997</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>0.18686249999999999</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>8.2827999999999999</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>12.0548875</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>2.2995625</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5.1374999999999997E-2</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>9.3024999999999997E-2</v>
       </c>
-      <c r="O29" s="4">
+      <c r="P29" s="4">
         <v>0.18149691472471405</v>
       </c>
-      <c r="P29" s="10">
+      <c r="Q29" s="10">
         <v>142.4744929987605</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="R29" s="5">
         <v>1078.45</v>
       </c>
-      <c r="R29" s="10">
+      <c r="S29" s="10">
         <v>71.142114576925621</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T29" s="4">
         <v>0.159259478713487</v>
       </c>
-      <c r="T29" s="6">
+      <c r="U29" s="6">
         <v>5.144E-2</v>
       </c>
-      <c r="U29" s="6">
+      <c r="V29" s="6">
         <v>2.4434999999999998E-2</v>
       </c>
-      <c r="V29" s="6">
+      <c r="W29" s="6">
         <v>7.6729123397215979E-2</v>
       </c>
-      <c r="W29" s="6">
+      <c r="X29" s="6">
         <v>4.2394208545301439E-2</v>
       </c>
-      <c r="X29" s="11">
+      <c r="Y29" s="11">
         <v>42.174999999999997</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="Z29" s="11">
         <v>298.05</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="AA29" s="11">
         <v>454.89</v>
       </c>
-      <c r="AA29" s="11">
+      <c r="AB29" s="11">
         <v>46.02</v>
       </c>
-      <c r="AB29" s="11">
+      <c r="AC29" s="11">
         <v>110.125</v>
       </c>
-      <c r="AC29" s="11">
+      <c r="AD29" s="11">
         <v>107.825</v>
       </c>
-      <c r="AD29" s="11">
+      <c r="AE29" s="11">
         <v>0.76749999999999996</v>
       </c>
-      <c r="AE29" s="11">
+      <c r="AF29" s="11">
         <v>82.415000000000006</v>
       </c>
-      <c r="AF29" s="11">
+      <c r="AG29" s="11">
         <v>23.504999999999999</v>
       </c>
-      <c r="AG29" s="11">
+      <c r="AH29" s="11">
         <v>54.62</v>
       </c>
-      <c r="AH29" s="11">
+      <c r="AI29" s="11">
         <v>1.33</v>
       </c>
-      <c r="AI29" s="11">
+      <c r="AJ29" s="11">
         <v>6.8550000000000004</v>
       </c>
-      <c r="AJ29" s="11">
+      <c r="AK29" s="11">
         <v>1.9350000000000001</v>
       </c>
-      <c r="AK29" s="11">
+      <c r="AL29" s="11">
         <v>6.5449999999999999</v>
       </c>
-      <c r="AL29" s="11">
+      <c r="AM29" s="11">
         <v>1.1425000000000001</v>
       </c>
-      <c r="AM29" s="11">
+      <c r="AN29" s="11">
         <v>6.72</v>
       </c>
-      <c r="AN29" s="11">
+      <c r="AO29" s="11">
         <v>2.3650000000000002</v>
       </c>
-      <c r="AO29" s="11">
+      <c r="AP29" s="11">
         <v>0.89049999999999996</v>
       </c>
-      <c r="AP29" s="11">
+      <c r="AQ29" s="11">
         <v>3.1549999999999998</v>
       </c>
-      <c r="AQ29" s="11">
+      <c r="AR29" s="11">
         <v>0.60699999999999998</v>
       </c>
-      <c r="AR29" s="11">
+      <c r="AS29" s="11">
         <v>4.2149999999999999</v>
       </c>
-      <c r="AS29" s="11">
+      <c r="AT29" s="11">
         <v>0.90249999999999997</v>
       </c>
-      <c r="AT29" s="11">
+      <c r="AU29" s="11">
         <v>2.69</v>
       </c>
-      <c r="AU29" s="11">
+      <c r="AV29" s="11">
         <v>0.379</v>
       </c>
-      <c r="AV29" s="11">
+      <c r="AW29" s="11">
         <v>2.7250000000000001</v>
       </c>
-      <c r="AW29" s="11">
+      <c r="AX29" s="11">
         <v>0.4395</v>
       </c>
-      <c r="AX29" s="11">
+      <c r="AY29" s="11">
         <v>1.58</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>97.86</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>49.809614289999999</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>1.3183571430000001</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>15.199642860000001</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>9.4224428570000001</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>0.20134285699999999</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>8.3174428569999996</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>11.88068571</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>2.2593142859999999</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>7.6142856999999994E-2</v>
       </c>
-      <c r="N30" s="3">
+      <c r="O30" s="3">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>0.19326537094658885</v>
       </c>
-      <c r="P30" s="10">
+      <c r="Q30" s="10">
         <v>171.86630247954039</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="R30" s="5">
         <v>1083.0500000000002</v>
       </c>
-      <c r="R30" s="10">
+      <c r="S30" s="10">
         <v>48.233792507479222</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <v>0.17529513182749401</v>
       </c>
-      <c r="T30" s="6">
+      <c r="U30" s="6">
         <v>0.11081859421720648</v>
       </c>
-      <c r="U30" s="6">
+      <c r="V30" s="6">
         <v>2.9438926821674271E-2</v>
       </c>
-      <c r="V30" s="6">
+      <c r="W30" s="6">
         <v>0.16675715178641562</v>
       </c>
-      <c r="W30" s="6">
+      <c r="X30" s="6">
         <v>8.4148802146656911E-3</v>
       </c>
-      <c r="X30" s="11">
+      <c r="Y30" s="11">
         <v>37.6</v>
       </c>
-      <c r="Y30" s="11">
+      <c r="Z30" s="11">
         <v>277.66000000000003</v>
       </c>
-      <c r="Z30" s="11">
+      <c r="AA30" s="11">
         <v>367.59</v>
       </c>
-      <c r="AA30" s="11">
+      <c r="AB30" s="11">
         <v>42.24</v>
       </c>
-      <c r="AB30" s="11">
+      <c r="AC30" s="11">
         <v>112.54</v>
       </c>
-      <c r="AC30" s="11">
+      <c r="AD30" s="11">
         <v>81.2</v>
       </c>
-      <c r="AD30" s="11">
+      <c r="AE30" s="11">
         <v>0.82799999999999996</v>
       </c>
-      <c r="AE30" s="11">
+      <c r="AF30" s="11">
         <v>86.49</v>
       </c>
-      <c r="AF30" s="11">
+      <c r="AG30" s="11">
         <v>24.88</v>
       </c>
-      <c r="AG30" s="11">
+      <c r="AH30" s="11">
         <v>61.17</v>
       </c>
-      <c r="AH30" s="11">
+      <c r="AI30" s="11">
         <v>1.45</v>
       </c>
-      <c r="AI30" s="11">
+      <c r="AJ30" s="11">
         <v>6.96</v>
       </c>
-      <c r="AJ30" s="11">
+      <c r="AK30" s="11">
         <v>2.44</v>
       </c>
-      <c r="AK30" s="11">
+      <c r="AL30" s="11">
         <v>7.64</v>
       </c>
-      <c r="AL30" s="11">
+      <c r="AM30" s="11">
         <v>1.3</v>
       </c>
-      <c r="AM30" s="11">
+      <c r="AN30" s="11">
         <v>7.55</v>
       </c>
-      <c r="AN30" s="11">
+      <c r="AO30" s="11">
         <v>2.61</v>
       </c>
-      <c r="AO30" s="11">
+      <c r="AP30" s="11">
         <v>1.034</v>
       </c>
-      <c r="AP30" s="11">
+      <c r="AQ30" s="11">
         <v>3.69</v>
       </c>
-      <c r="AQ30" s="11">
+      <c r="AR30" s="11">
         <v>0.66400000000000003</v>
       </c>
-      <c r="AR30" s="11">
+      <c r="AS30" s="11">
         <v>4.53</v>
       </c>
-      <c r="AS30" s="11">
+      <c r="AT30" s="11">
         <v>0.96199999999999997</v>
       </c>
-      <c r="AT30" s="11">
+      <c r="AU30" s="11">
         <v>3</v>
       </c>
-      <c r="AU30" s="11">
+      <c r="AV30" s="11">
         <v>0.40899999999999997</v>
       </c>
-      <c r="AV30" s="11">
+      <c r="AW30" s="11">
         <v>3.06</v>
       </c>
-      <c r="AW30" s="11">
+      <c r="AX30" s="11">
         <v>0.434</v>
       </c>
-      <c r="AX30" s="11">
+      <c r="AY30" s="11">
         <v>1.83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AX1"/>
-    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AY1"/>
+    <mergeCell ref="P1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5610,37 +5782,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE34616-4F1F-4747-9A36-3B4F527C6E28}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="21.21875" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -5687,7 +5859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5734,7 +5906,7 @@
         <v>43178.756608796299</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5781,7 +5953,7 @@
         <v>43178.762974537036</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5828,10 +6000,10 @@
         <v>43178.769363425927</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5878,7 +6050,7 @@
         <v>43178.954814814817</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5925,7 +6097,7 @@
         <v>43178.961168981485</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5972,10 +6144,10 @@
         <v>43178.967523148145</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6022,7 +6194,7 @@
         <v>43179.417407407411</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6069,7 +6241,7 @@
         <v>43179.423784722225</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6116,10 +6288,10 @@
         <v>43179.430208333331</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6166,7 +6338,7 @@
         <v>43179.494803240741</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6213,7 +6385,7 @@
         <v>43179.501180555555</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6277,31 +6449,31 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="8">
         <v>321</v>
@@ -6313,9 +6485,9 @@
         <v>3.7653112362934886E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4">
         <v>34.007921135766466</v>
@@ -6327,9 +6499,9 @@
         <v>4.6496668189587233E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4">
         <v>81.026194732642679</v>
@@ -6341,9 +6513,9 @@
         <v>2.9221548256362655</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4">
         <v>77.221604390045584</v>
@@ -6355,9 +6527,9 @@
         <v>2.8792440476050567</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="4">
         <v>78.692909098961763</v>
@@ -6369,7 +6541,7 @@
         <v>1.5423465404524643</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -6383,9 +6555,9 @@
         <v>0.28673080068581969</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4">
         <v>576.89849353960403</v>
@@ -6397,9 +6569,9 @@
         <v>0.13331342828305531</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="4">
         <v>335.02124971607424</v>
@@ -6414,9 +6586,9 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="4">
         <v>328.73438731880248</v>
@@ -6428,9 +6600,9 @@
         <v>0.44945083533519753</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4">
         <v>338.86849441929547</v>
@@ -6442,9 +6614,9 @@
         <v>0.45626300665046232</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4">
         <v>143.15416956223751</v>
@@ -6459,9 +6631,9 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <v>128.65396779350814</v>
@@ -6473,9 +6645,9 @@
         <v>0.15012885284399258</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4">
         <v>126.57999406296545</v>
@@ -6485,9 +6657,9 @@
         <v>0.15524231073953959</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="4">
         <v>122.15796375597458</v>
@@ -6502,9 +6674,9 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="4">
         <v>98.929751712765409</v>
@@ -6516,9 +6688,9 @@
         <v>0.11375965891143755</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4">
         <v>109.25701198686163</v>
@@ -6530,9 +6702,9 @@
         <v>0.1222894184286113</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="4">
         <v>220.97261990681645</v>
@@ -6547,9 +6719,9 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4">
         <v>217.29608083765964</v>
@@ -6561,9 +6733,9 @@
         <v>0.2470113567066283</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="4">
         <v>425.20550584100391</v>
@@ -6578,9 +6750,9 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4">
         <v>420.13605037900385</v>
@@ -6592,9 +6764,9 @@
         <v>0.72043031633031174</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4">
         <v>438.7034498484328</v>
@@ -6606,9 +6778,9 @@
         <v>0.7362135078871046</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4">
         <v>179.707164251449</v>
@@ -6623,9 +6795,9 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="4">
         <v>174.54755487134824</v>
@@ -6637,9 +6809,9 @@
         <v>0.22166145346528379</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="4">
         <v>218.8193223356995</v>
@@ -6654,9 +6826,9 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="4">
         <v>215.70364211662039</v>
@@ -6668,9 +6840,9 @@
         <v>0.25956819053853386</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="4">
         <v>581.93635199906566</v>
@@ -6685,9 +6857,9 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="4">
         <v>574.30936733453314</v>
@@ -6699,9 +6871,9 @@
         <v>0.8833453207008507</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="4">
         <v>581.19479016357695</v>
@@ -6713,9 +6885,9 @@
         <v>0.87218949370027132</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="4">
         <v>233.44342212750914</v>
@@ -6730,9 +6902,9 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="4">
         <v>228.7851016629715</v>
@@ -6744,9 +6916,9 @@
         <v>0.30597632973851574</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="4">
         <v>269.76785906258647</v>
@@ -6761,9 +6933,9 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="4">
         <v>209.23688929573052</v>
@@ -6775,9 +6947,9 @@
         <v>0.28922791191746594</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="4">
         <v>242.44316823508063</v>
@@ -6792,9 +6964,9 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4">
         <v>246.33831699404581</v>
@@ -6806,9 +6978,9 @@
         <v>0.32681564518711415</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="4">
         <v>290.35399394493106</v>
@@ -6823,9 +6995,9 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="4">
         <v>295.08540732908642</v>
@@ -6837,9 +7009,9 @@
         <v>0.37958184739633305</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="4">
         <v>405.48688255206264</v>
@@ -6854,9 +7026,9 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="4">
         <v>421.65148458863564</v>
@@ -6868,9 +7040,9 @@
         <v>0.64730254578435509</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="4">
         <v>153.56701668087507</v>
@@ -6885,9 +7057,9 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="4">
         <v>190.16558827820572</v>
@@ -6899,9 +7071,9 @@
         <v>0.19060476382919123</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="4">
         <v>145.83947555393081</v>
@@ -6916,9 +7088,9 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="4">
         <v>142.8101466674527</v>
@@ -6930,9 +7102,9 @@
         <v>0.18224102136990011</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="4">
         <v>138.77385677489798</v>
@@ -6944,9 +7116,9 @@
         <v>0.17894932788108356</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="4">
         <v>267.92834342387118</v>
@@ -6961,9 +7133,9 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" s="4">
         <v>273.24407154047714</v>
@@ -6975,9 +7147,9 @@
         <v>0.35847003465977445</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="4">
         <v>592.80994045116938</v>
@@ -6992,9 +7164,9 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="4">
         <v>589.72304607239073</v>
@@ -7006,9 +7178,9 @@
         <v>0.97744145002677207</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49" s="4">
         <v>588.74951286924352</v>
@@ -7020,9 +7192,9 @@
         <v>0.97260509692798724</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" s="4">
         <v>289.60228958919612</v>
@@ -7037,9 +7209,9 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="4">
         <v>290.58873839577387</v>
@@ -7051,9 +7223,9 @@
         <v>0.3851972777564624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="4">
         <v>324.45586567977972</v>
@@ -7068,9 +7240,9 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="4">
         <v>343.89938586682359</v>
@@ -7082,9 +7254,9 @@
         <v>0.45057284673600256</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="4">
         <v>333.73592990933719</v>
@@ -7096,9 +7268,9 @@
         <v>0.45250185806910997</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="4">
         <v>329.49929394366671</v>
@@ -7110,9 +7282,9 @@
         <v>0.44292133059416444</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B56" s="4">
         <v>357.92544728837674</v>
@@ -7124,9 +7296,9 @@
         <v>0.43645252347972535</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" s="4">
         <v>220.34375489640865</v>
@@ -7141,9 +7313,9 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="4">
         <v>213.02506070621311</v>
@@ -7155,9 +7327,9 @@
         <v>0.27474082347985657</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="4">
         <v>226.68501820035817</v>
@@ -7169,9 +7341,9 @@
         <v>0.27079817406734435</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" s="4">
         <v>156.03003947048649</v>
@@ -7186,9 +7358,9 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" s="4">
         <v>165.38799306954425</v>
@@ -7200,9 +7372,9 @@
         <v>0.17816392546090598</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" s="4">
         <v>150.64071469315391</v>
@@ -7214,9 +7386,9 @@
         <v>0.17481556381033431</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="4">
         <v>411.80735464342553</v>
@@ -7231,9 +7403,9 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" s="4">
         <v>408.68945803303654</v>
@@ -7245,9 +7417,9 @@
         <v>0.65000032556135079</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="4">
         <v>400.68275842601889</v>
